--- a/11. Yudisium/Lembar Yudisium (4).xlsx
+++ b/11. Yudisium/Lembar Yudisium (4).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="699">
   <si>
     <t>Versi :</t>
   </si>
@@ -2262,6 +2262,30 @@
   </si>
   <si>
     <t>Lucky Senjaya Darmawan</t>
+  </si>
+  <si>
+    <t>Jl. Perintis Kemerdekaan Ruko 4 Toko Sinar Surya</t>
+  </si>
+  <si>
+    <t>Tasikmalaya</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>089662030340</t>
+  </si>
+  <si>
+    <t>lucky.kls9b@gmail.com</t>
+  </si>
+  <si>
+    <t>(0265) 330488</t>
+  </si>
+  <si>
+    <t>STUDI DAN INTEGRASI WORKFLOW MENGGUNAKAN BPMS DAN SISTEM EMAIL</t>
+  </si>
+  <si>
+    <t>WORKFLOW STUDY AND INTEGRATION USING BPMS AND EMAIL SYSTEM</t>
   </si>
 </sst>
 </file>
@@ -4882,12 +4906,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4902,18 +4934,126 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -4922,162 +5062,46 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
@@ -5090,6 +5114,15 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5103,26 +5136,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5132,6 +5176,110 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -5144,132 +5292,20 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5284,14 +5320,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5305,10 +5333,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5677,7 +5701,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -5702,204 +5726,204 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
     </row>
     <row r="3" spans="1:3" s="195" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="197"/>
-      <c r="B3" s="286" t="s">
+      <c r="B3" s="288" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="286"/>
+      <c r="C3" s="288"/>
     </row>
     <row r="4" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="282"/>
+      <c r="C4" s="284"/>
     </row>
     <row r="5" spans="1:3" s="196" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="198">
         <v>2</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="282"/>
+      <c r="C5" s="284"/>
     </row>
     <row r="6" spans="1:3" s="196" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="198">
         <v>3</v>
       </c>
-      <c r="B6" s="282" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="282"/>
+      <c r="B6" s="284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="284"/>
     </row>
     <row r="7" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="198">
         <v>4</v>
       </c>
-      <c r="B7" s="282" t="s">
+      <c r="B7" s="284" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="282"/>
+      <c r="C7" s="284"/>
     </row>
     <row r="8" spans="1:3" s="196" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="198">
         <v>5</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="282"/>
+      <c r="C8" s="284"/>
     </row>
     <row r="9" spans="1:3" s="196" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="198">
         <v>6</v>
       </c>
-      <c r="B9" s="282" t="s">
+      <c r="B9" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="282"/>
+      <c r="C9" s="284"/>
     </row>
     <row r="10" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="198">
         <v>7</v>
       </c>
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="282"/>
+      <c r="C10" s="284"/>
     </row>
     <row r="11" spans="1:3" s="196" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="198">
         <v>8</v>
       </c>
-      <c r="B11" s="282" t="s">
+      <c r="B11" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="282"/>
+      <c r="C11" s="284"/>
     </row>
     <row r="12" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="198">
         <v>9</v>
       </c>
-      <c r="B12" s="282" t="s">
+      <c r="B12" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="282"/>
+      <c r="C12" s="284"/>
     </row>
     <row r="13" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="198">
         <v>10</v>
       </c>
-      <c r="B13" s="284" t="s">
+      <c r="B13" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="284"/>
+      <c r="C13" s="286"/>
     </row>
     <row r="14" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="198">
         <v>11</v>
       </c>
-      <c r="B14" s="282" t="s">
+      <c r="B14" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="282"/>
+      <c r="C14" s="284"/>
     </row>
     <row r="15" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="198">
         <v>12</v>
       </c>
-      <c r="B15" s="287" t="s">
+      <c r="B15" s="285" t="s">
         <v>556</v>
       </c>
-      <c r="C15" s="287"/>
+      <c r="C15" s="285"/>
     </row>
     <row r="16" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="198">
         <v>13</v>
       </c>
-      <c r="B16" s="287" t="s">
+      <c r="B16" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="287"/>
+      <c r="C16" s="285"/>
     </row>
     <row r="17" spans="1:3" s="196" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="198">
         <v>14</v>
       </c>
-      <c r="B17" s="282" t="s">
+      <c r="B17" s="284" t="s">
         <v>557</v>
       </c>
-      <c r="C17" s="282"/>
+      <c r="C17" s="284"/>
     </row>
     <row r="18" spans="1:3" s="196" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="198">
         <v>15</v>
       </c>
-      <c r="B18" s="287" t="s">
+      <c r="B18" s="285" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="287"/>
+      <c r="C18" s="285"/>
     </row>
     <row r="19" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="198">
         <v>16</v>
       </c>
-      <c r="B19" s="282" t="s">
+      <c r="B19" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="282"/>
+      <c r="C19" s="284"/>
     </row>
     <row r="20" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="198">
         <v>17</v>
       </c>
-      <c r="B20" s="284" t="s">
+      <c r="B20" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="284"/>
+      <c r="C20" s="286"/>
     </row>
     <row r="21" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="198">
         <v>18</v>
       </c>
-      <c r="B21" s="282" t="s">
+      <c r="B21" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="282"/>
+      <c r="C21" s="284"/>
     </row>
     <row r="22" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="198">
         <v>19</v>
       </c>
-      <c r="B22" s="282" t="s">
+      <c r="B22" s="284" t="s">
         <v>552</v>
       </c>
-      <c r="C22" s="282"/>
+      <c r="C22" s="284"/>
     </row>
     <row r="23" spans="1:3" s="196" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="198">
         <v>20</v>
       </c>
-      <c r="B23" s="282" t="s">
+      <c r="B23" s="284" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="282"/>
+      <c r="C23" s="284"/>
     </row>
     <row r="24" spans="1:3" s="196" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="198">
         <v>21</v>
       </c>
-      <c r="B24" s="282" t="s">
+      <c r="B24" s="284" t="s">
         <v>551</v>
       </c>
-      <c r="C24" s="282"/>
+      <c r="C24" s="284"/>
     </row>
     <row r="25" spans="1:3" s="195" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:3" s="195" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5959,109 +5983,109 @@
       <c r="A33" s="217">
         <v>6</v>
       </c>
-      <c r="B33" s="288" t="s">
+      <c r="B33" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="288"/>
+      <c r="C33" s="282"/>
     </row>
     <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="217">
         <v>7</v>
       </c>
-      <c r="B34" s="288" t="s">
+      <c r="B34" s="282" t="s">
         <v>546</v>
       </c>
-      <c r="C34" s="288"/>
+      <c r="C34" s="282"/>
     </row>
     <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="217">
         <v>8</v>
       </c>
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="282" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="288"/>
+      <c r="C35" s="282"/>
     </row>
     <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="217">
         <v>9</v>
       </c>
-      <c r="B36" s="288" t="s">
+      <c r="B36" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="288"/>
+      <c r="C36" s="282"/>
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="217">
         <v>10</v>
       </c>
-      <c r="B37" s="288" t="s">
+      <c r="B37" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="288"/>
+      <c r="C37" s="282"/>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="217">
         <v>11</v>
       </c>
-      <c r="B38" s="288" t="s">
+      <c r="B38" s="282" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="288"/>
+      <c r="C38" s="282"/>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="217">
         <v>12</v>
       </c>
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="282" t="s">
         <v>545</v>
       </c>
-      <c r="C39" s="288"/>
+      <c r="C39" s="282"/>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="217">
         <v>13</v>
       </c>
-      <c r="B40" s="288" t="s">
+      <c r="B40" s="282" t="s">
         <v>547</v>
       </c>
-      <c r="C40" s="288"/>
+      <c r="C40" s="282"/>
     </row>
     <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="217">
         <v>14</v>
       </c>
-      <c r="B41" s="288" t="s">
+      <c r="B41" s="282" t="s">
         <v>549</v>
       </c>
-      <c r="C41" s="288"/>
+      <c r="C41" s="282"/>
     </row>
     <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="217">
         <v>15</v>
       </c>
-      <c r="B42" s="288" t="s">
+      <c r="B42" s="282" t="s">
         <v>554</v>
       </c>
-      <c r="C42" s="288"/>
+      <c r="C42" s="282"/>
     </row>
     <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="217">
         <v>16</v>
       </c>
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="282" t="s">
         <v>596</v>
       </c>
-      <c r="C43" s="288"/>
+      <c r="C43" s="282"/>
     </row>
     <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="217">
         <v>17</v>
       </c>
-      <c r="B44" s="288" t="s">
+      <c r="B44" s="282" t="s">
         <v>597</v>
       </c>
-      <c r="C44" s="288"/>
+      <c r="C44" s="282"/>
     </row>
     <row r="45" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="228">
@@ -6075,30 +6099,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8wuf7W8jheUHErvvnV4hoRuGfQAqsJogq0RJg/qtvxhcRlJnI6qYyQa2ZOG6z6LcTcT/1OBEaMUM+Lu4RvqEzQ==" saltValue="T9n7w/YXbTrfN4nIid6KZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="40">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B13:C13"/>
@@ -6115,6 +6115,30 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1"/>
@@ -6149,68 +6173,68 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="184"/>
-      <c r="B1" s="316" t="s">
+      <c r="B1" s="291" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="184"/>
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
     </row>
     <row r="3" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="329"/>
-      <c r="H4" s="329"/>
-      <c r="I4" s="329"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="293"/>
+      <c r="L4" s="293"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="329" t="s">
+      <c r="A5" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="329"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="329"/>
-      <c r="J5" s="329"/>
-      <c r="K5" s="329"/>
-      <c r="L5" s="329"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="293"/>
     </row>
     <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="125">
@@ -6231,17 +6255,17 @@
       <c r="C8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="319" t="str">
+      <c r="D8" s="310" t="str">
         <f>'Data Diri'!C10</f>
         <v>Lucky Senjaya Darmawan</v>
       </c>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="319"/>
-      <c r="K8" s="319"/>
+      <c r="E8" s="310"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="310"/>
+      <c r="H8" s="310"/>
+      <c r="I8" s="310"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="310"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -6250,13 +6274,13 @@
       <c r="C9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="319">
+      <c r="D9" s="310">
         <f>'Data Diri'!C9</f>
         <v>2012730009</v>
       </c>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
       <c r="H9" s="229"/>
       <c r="I9" s="229"/>
       <c r="J9" s="229"/>
@@ -6277,14 +6301,14 @@
       <c r="C13" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="318" t="s">
+      <c r="D13" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
       <c r="J13" s="130" t="s">
         <v>40</v>
       </c>
@@ -6298,15 +6322,15 @@
         <f ca="1">VLOOKUP(B14,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="330" t="e">
+      <c r="D14" s="295" t="e">
         <f ca="1">VLOOKUP(B14,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="330"/>
-      <c r="F14" s="330"/>
-      <c r="G14" s="330"/>
-      <c r="H14" s="330"/>
-      <c r="I14" s="330"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="295"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="295"/>
       <c r="J14" s="133" t="e">
         <f ca="1">VLOOKUP(B14,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6321,15 +6345,15 @@
         <f ca="1">VLOOKUP(B15,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="289" t="e">
+      <c r="D15" s="294" t="e">
         <f ca="1">VLOOKUP(B15,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="289"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="289"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
       <c r="J15" s="135" t="e">
         <f ca="1">VLOOKUP(B15,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6344,15 +6368,15 @@
         <f ca="1">VLOOKUP(B16,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="289" t="e">
+      <c r="D16" s="294" t="e">
         <f ca="1">VLOOKUP(B16,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
       <c r="J16" s="135" t="e">
         <f ca="1">VLOOKUP(B16,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6367,15 +6391,15 @@
         <f ca="1">VLOOKUP(B17,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D17" s="289" t="e">
+      <c r="D17" s="294" t="e">
         <f ca="1">VLOOKUP(B17,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="289"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="289"/>
-      <c r="H17" s="289"/>
-      <c r="I17" s="289"/>
+      <c r="E17" s="294"/>
+      <c r="F17" s="294"/>
+      <c r="G17" s="294"/>
+      <c r="H17" s="294"/>
+      <c r="I17" s="294"/>
       <c r="J17" s="135" t="e">
         <f ca="1">VLOOKUP(B17,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6390,15 +6414,15 @@
         <f ca="1">VLOOKUP(B18,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D18" s="289" t="e">
+      <c r="D18" s="294" t="e">
         <f ca="1">VLOOKUP(B18,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
       <c r="J18" s="135" t="e">
         <f ca="1">VLOOKUP(B18,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6413,15 +6437,15 @@
         <f ca="1">VLOOKUP(B19,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="289" t="e">
+      <c r="D19" s="294" t="e">
         <f ca="1">VLOOKUP(B19,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
+      <c r="E19" s="294"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
+      <c r="H19" s="294"/>
+      <c r="I19" s="294"/>
       <c r="J19" s="135" t="e">
         <f ca="1">VLOOKUP(B19,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6436,15 +6460,15 @@
         <f ca="1">VLOOKUP(B20,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="289" t="e">
+      <c r="D20" s="294" t="e">
         <f ca="1">VLOOKUP(B20,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="289"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="289"/>
-      <c r="I20" s="289"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="294"/>
       <c r="J20" s="135" t="e">
         <f ca="1">VLOOKUP(B20,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6459,15 +6483,15 @@
         <f ca="1">VLOOKUP(B21,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="289" t="e">
+      <c r="D21" s="294" t="e">
         <f ca="1">VLOOKUP(B21,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="289"/>
-      <c r="F21" s="289"/>
-      <c r="G21" s="289"/>
-      <c r="H21" s="289"/>
-      <c r="I21" s="289"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
       <c r="J21" s="135" t="e">
         <f ca="1">VLOOKUP(B21,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6482,15 +6506,15 @@
         <f ca="1">VLOOKUP(B22,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D22" s="289" t="e">
+      <c r="D22" s="294" t="e">
         <f ca="1">VLOOKUP(B22,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="289"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="289"/>
-      <c r="H22" s="289"/>
-      <c r="I22" s="289"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
       <c r="J22" s="135" t="e">
         <f ca="1">VLOOKUP(B22,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
@@ -6505,21 +6529,21 @@
         <f ca="1">VLOOKUP(B23,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D23" s="289" t="e">
+      <c r="D23" s="294" t="e">
         <f ca="1">VLOOKUP(B23,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="289"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="289"/>
-      <c r="H23" s="289"/>
-      <c r="I23" s="289"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
       <c r="J23" s="135" t="e">
         <f ca="1">VLOOKUP(B23,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="134" t="str">
         <f>IF('Hapus MK'!Q13="","Uncheck box ini",'Hapus MK'!Q13)</f>
         <v>AIF311</v>
@@ -6528,21 +6552,21 @@
         <f>VLOOKUP(B24,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D24" s="289" t="str">
+      <c r="D24" s="294" t="str">
         <f>VLOOKUP(B24,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>Pemrograman Fungsional</v>
       </c>
-      <c r="E24" s="289"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="289"/>
-      <c r="H24" s="289"/>
-      <c r="I24" s="289"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="294"/>
       <c r="J24" s="135" t="str">
         <f>VLOOKUP(B24,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>D</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="134" t="str">
         <f>IF('Hapus MK'!Q14="","Uncheck box ini",'Hapus MK'!Q14)</f>
         <v>Uncheck box ini</v>
@@ -6551,21 +6575,21 @@
         <f>VLOOKUP(B25,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="289" t="e">
+      <c r="D25" s="294" t="e">
         <f>VLOOKUP(B25,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="289"/>
-      <c r="F25" s="289"/>
-      <c r="G25" s="289"/>
-      <c r="H25" s="289"/>
-      <c r="I25" s="289"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
       <c r="J25" s="135" t="e">
         <f>VLOOKUP(B25,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="134" t="str">
         <f>IF('Hapus MK'!Q15="","Uncheck box ini",'Hapus MK'!Q15)</f>
         <v>Uncheck box ini</v>
@@ -6574,21 +6598,21 @@
         <f>VLOOKUP(B26,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D26" s="289" t="e">
+      <c r="D26" s="294" t="e">
         <f>VLOOKUP(B26,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="289"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="289"/>
-      <c r="H26" s="289"/>
-      <c r="I26" s="289"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="294"/>
       <c r="J26" s="135" t="e">
         <f>VLOOKUP(B26,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="134" t="str">
         <f>IF('Hapus MK'!Q16="","Uncheck box ini",'Hapus MK'!Q16)</f>
         <v>Uncheck box ini</v>
@@ -6597,21 +6621,21 @@
         <f>VLOOKUP(B27,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="289" t="e">
+      <c r="D27" s="294" t="e">
         <f>VLOOKUP(B27,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
       <c r="J27" s="135" t="e">
         <f>VLOOKUP(B27,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="134" t="str">
         <f>IF('Hapus MK'!Q17="","Uncheck box ini",'Hapus MK'!Q17)</f>
         <v>Uncheck box ini</v>
@@ -6620,21 +6644,21 @@
         <f>VLOOKUP(B28,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="289" t="e">
+      <c r="D28" s="294" t="e">
         <f>VLOOKUP(B28,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E28" s="289"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="289"/>
-      <c r="H28" s="289"/>
-      <c r="I28" s="289"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="294"/>
+      <c r="I28" s="294"/>
       <c r="J28" s="135" t="e">
         <f>VLOOKUP(B28,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="134" t="str">
         <f>IF('Hapus MK'!Q18="","Uncheck box ini",'Hapus MK'!Q18)</f>
         <v>Uncheck box ini</v>
@@ -6643,21 +6667,21 @@
         <f>VLOOKUP(B29,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="289" t="e">
+      <c r="D29" s="294" t="e">
         <f>VLOOKUP(B29,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E29" s="289"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="289"/>
-      <c r="H29" s="289"/>
-      <c r="I29" s="289"/>
+      <c r="E29" s="294"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="294"/>
+      <c r="I29" s="294"/>
       <c r="J29" s="135" t="e">
         <f>VLOOKUP(B29,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="134" t="str">
         <f>IF('Hapus MK'!Q19="","Uncheck box ini",'Hapus MK'!Q19)</f>
         <v>Uncheck box ini</v>
@@ -6666,21 +6690,21 @@
         <f>VLOOKUP(B30,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="289" t="e">
+      <c r="D30" s="294" t="e">
         <f>VLOOKUP(B30,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E30" s="289"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="289"/>
-      <c r="I30" s="289"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="294"/>
       <c r="J30" s="135" t="e">
         <f>VLOOKUP(B30,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="134" t="str">
         <f>IF('Hapus MK'!Q20="","Uncheck box ini",'Hapus MK'!Q20)</f>
         <v>Uncheck box ini</v>
@@ -6689,21 +6713,21 @@
         <f>VLOOKUP(B31,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D31" s="289" t="e">
+      <c r="D31" s="294" t="e">
         <f>VLOOKUP(B31,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E31" s="289"/>
-      <c r="F31" s="289"/>
-      <c r="G31" s="289"/>
-      <c r="H31" s="289"/>
-      <c r="I31" s="289"/>
+      <c r="E31" s="294"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
+      <c r="H31" s="294"/>
+      <c r="I31" s="294"/>
       <c r="J31" s="135" t="e">
         <f>VLOOKUP(B31,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="134" t="str">
         <f>IF('Hapus MK'!Q21="","Uncheck box ini",'Hapus MK'!Q21)</f>
         <v>Uncheck box ini</v>
@@ -6712,21 +6736,21 @@
         <f>VLOOKUP(B32,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D32" s="289" t="e">
+      <c r="D32" s="294" t="e">
         <f>VLOOKUP(B32,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E32" s="289"/>
-      <c r="F32" s="289"/>
-      <c r="G32" s="289"/>
-      <c r="H32" s="289"/>
-      <c r="I32" s="289"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="294"/>
+      <c r="I32" s="294"/>
       <c r="J32" s="135" t="e">
         <f>VLOOKUP(B32,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="134" t="str">
         <f>IF('Hapus MK'!Q22="","Uncheck box ini",'Hapus MK'!Q22)</f>
         <v>Uncheck box ini</v>
@@ -6735,21 +6759,21 @@
         <f>VLOOKUP(B33,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D33" s="289" t="e">
+      <c r="D33" s="294" t="e">
         <f>VLOOKUP(B33,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E33" s="289"/>
-      <c r="F33" s="289"/>
-      <c r="G33" s="289"/>
-      <c r="H33" s="289"/>
-      <c r="I33" s="289"/>
+      <c r="E33" s="294"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="294"/>
       <c r="J33" s="135" t="e">
         <f>VLOOKUP(B33,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="134" t="str">
         <f>IF('Hapus MK'!Q23="","Uncheck box ini",'Hapus MK'!Q23)</f>
         <v>Uncheck box ini</v>
@@ -6758,21 +6782,21 @@
         <f>VLOOKUP(B34,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D34" s="289" t="e">
+      <c r="D34" s="294" t="e">
         <f>VLOOKUP(B34,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E34" s="289"/>
-      <c r="F34" s="289"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="289"/>
-      <c r="I34" s="289"/>
+      <c r="E34" s="294"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
+      <c r="H34" s="294"/>
+      <c r="I34" s="294"/>
       <c r="J34" s="135" t="e">
         <f>VLOOKUP(B34,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="134" t="str">
         <f>IF('Hapus MK'!Q24="","Uncheck box ini",'Hapus MK'!Q24)</f>
         <v>Uncheck box ini</v>
@@ -6781,21 +6805,21 @@
         <f>VLOOKUP(B35,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D35" s="289" t="e">
+      <c r="D35" s="294" t="e">
         <f>VLOOKUP(B35,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E35" s="289"/>
-      <c r="F35" s="289"/>
-      <c r="G35" s="289"/>
-      <c r="H35" s="289"/>
-      <c r="I35" s="289"/>
+      <c r="E35" s="294"/>
+      <c r="F35" s="294"/>
+      <c r="G35" s="294"/>
+      <c r="H35" s="294"/>
+      <c r="I35" s="294"/>
       <c r="J35" s="135" t="e">
         <f>VLOOKUP(B35,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="134" t="str">
         <f>IF('Hapus MK'!Q25="","Uncheck box ini",'Hapus MK'!Q25)</f>
         <v>Uncheck box ini</v>
@@ -6804,21 +6828,21 @@
         <f>VLOOKUP(B36,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D36" s="289" t="e">
+      <c r="D36" s="294" t="e">
         <f>VLOOKUP(B36,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="289"/>
-      <c r="G36" s="289"/>
-      <c r="H36" s="289"/>
-      <c r="I36" s="289"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
       <c r="J36" s="135" t="e">
         <f>VLOOKUP(B36,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="134" t="str">
         <f>IF('Hapus MK'!Q26="","Uncheck box ini",'Hapus MK'!Q26)</f>
         <v>Uncheck box ini</v>
@@ -6827,21 +6851,21 @@
         <f>VLOOKUP(B37,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D37" s="289" t="e">
+      <c r="D37" s="294" t="e">
         <f>VLOOKUP(B37,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E37" s="289"/>
-      <c r="F37" s="289"/>
-      <c r="G37" s="289"/>
-      <c r="H37" s="289"/>
-      <c r="I37" s="289"/>
+      <c r="E37" s="294"/>
+      <c r="F37" s="294"/>
+      <c r="G37" s="294"/>
+      <c r="H37" s="294"/>
+      <c r="I37" s="294"/>
       <c r="J37" s="135" t="e">
         <f>VLOOKUP(B37,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="134" t="str">
         <f>IF('Hapus MK'!Q27="","Uncheck box ini",'Hapus MK'!Q27)</f>
         <v>Uncheck box ini</v>
@@ -6850,21 +6874,21 @@
         <f>VLOOKUP(B38,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D38" s="289" t="e">
+      <c r="D38" s="294" t="e">
         <f>VLOOKUP(B38,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
-      <c r="G38" s="289"/>
-      <c r="H38" s="289"/>
-      <c r="I38" s="289"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
       <c r="J38" s="135" t="e">
         <f>VLOOKUP(B38,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="134" t="str">
         <f>IF('Hapus MK'!Q28="","Uncheck box ini",'Hapus MK'!Q28)</f>
         <v>Uncheck box ini</v>
@@ -6873,21 +6897,21 @@
         <f>VLOOKUP(B39,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D39" s="289" t="e">
+      <c r="D39" s="294" t="e">
         <f>VLOOKUP(B39,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E39" s="289"/>
-      <c r="F39" s="289"/>
-      <c r="G39" s="289"/>
-      <c r="H39" s="289"/>
-      <c r="I39" s="289"/>
+      <c r="E39" s="294"/>
+      <c r="F39" s="294"/>
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
       <c r="J39" s="135" t="e">
         <f>VLOOKUP(B39,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="134" t="str">
         <f>IF('Hapus MK'!Q29="","Uncheck box ini",'Hapus MK'!Q29)</f>
         <v>Uncheck box ini</v>
@@ -6896,21 +6920,21 @@
         <f>VLOOKUP(B40,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D40" s="289" t="e">
+      <c r="D40" s="294" t="e">
         <f>VLOOKUP(B40,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E40" s="289"/>
-      <c r="F40" s="289"/>
-      <c r="G40" s="289"/>
-      <c r="H40" s="289"/>
-      <c r="I40" s="289"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="294"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
       <c r="J40" s="135" t="e">
         <f>VLOOKUP(B40,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="134" t="str">
         <f>IF('Hapus MK'!Q30="","Uncheck box ini",'Hapus MK'!Q30)</f>
         <v>Uncheck box ini</v>
@@ -6919,21 +6943,21 @@
         <f>VLOOKUP(B41,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D41" s="289" t="e">
+      <c r="D41" s="294" t="e">
         <f>VLOOKUP(B41,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E41" s="289"/>
-      <c r="F41" s="289"/>
-      <c r="G41" s="289"/>
-      <c r="H41" s="289"/>
-      <c r="I41" s="289"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
       <c r="J41" s="135" t="e">
         <f>VLOOKUP(B41,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="134" t="str">
         <f>IF('Hapus MK'!Q31="","Uncheck box ini",'Hapus MK'!Q31)</f>
         <v>Uncheck box ini</v>
@@ -6942,21 +6966,21 @@
         <f>VLOOKUP(B42,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D42" s="289" t="e">
+      <c r="D42" s="294" t="e">
         <f>VLOOKUP(B42,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E42" s="289"/>
-      <c r="F42" s="289"/>
-      <c r="G42" s="289"/>
-      <c r="H42" s="289"/>
-      <c r="I42" s="289"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
       <c r="J42" s="135" t="e">
         <f>VLOOKUP(B42,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="134" t="str">
         <f>IF('Hapus MK'!Q32="","Uncheck box ini",'Hapus MK'!Q32)</f>
         <v>Uncheck box ini</v>
@@ -6965,110 +6989,110 @@
         <f>VLOOKUP(B43,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D43" s="289" t="e">
+      <c r="D43" s="294" t="e">
         <f>VLOOKUP(B43,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E43" s="289"/>
-      <c r="F43" s="289"/>
-      <c r="G43" s="289"/>
-      <c r="H43" s="289"/>
-      <c r="I43" s="289"/>
+      <c r="E43" s="294"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="294"/>
+      <c r="H43" s="294"/>
+      <c r="I43" s="294"/>
       <c r="J43" s="137" t="e">
         <f>VLOOKUP(B43,'Nilai Kurikulum 2013'!$E$4:$O$175,10,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="138" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="139"/>
-      <c r="D44" s="317"/>
-      <c r="E44" s="317"/>
-      <c r="F44" s="317"/>
-      <c r="G44" s="317"/>
-      <c r="H44" s="317"/>
-      <c r="I44" s="317"/>
+      <c r="D44" s="308"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="308"/>
+      <c r="G44" s="308"/>
+      <c r="H44" s="308"/>
+      <c r="I44" s="308"/>
       <c r="J44" s="140"/>
-      <c r="K44" s="322" t="str">
+      <c r="K44" s="297" t="str">
         <f ca="1">IF(E56=K56,"","IPK Awal : "&amp;'Nilai Kurikulum 2013'!AF40)</f>
         <v>IPK Awal : 3.16</v>
       </c>
-      <c r="L44" s="323"/>
+      <c r="L44" s="298"/>
     </row>
     <row r="45" spans="2:12" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="293" t="s">
+      <c r="B46" s="296" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="293"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="293"/>
-      <c r="G46" s="293"/>
-      <c r="H46" s="293"/>
-      <c r="I46" s="293"/>
-      <c r="J46" s="293"/>
-      <c r="K46" s="293"/>
-      <c r="L46" s="293"/>
+      <c r="C46" s="296"/>
+      <c r="D46" s="296"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="296"/>
+      <c r="G46" s="296"/>
+      <c r="H46" s="296"/>
+      <c r="I46" s="296"/>
+      <c r="J46" s="296"/>
+      <c r="K46" s="296"/>
+      <c r="L46" s="296"/>
     </row>
     <row r="47" spans="2:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:12" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="313" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="299"/>
-      <c r="D48" s="290" t="s">
+      <c r="C48" s="314"/>
+      <c r="D48" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="291"/>
-      <c r="F48" s="290" t="s">
+      <c r="E48" s="320"/>
+      <c r="F48" s="319" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="291"/>
-      <c r="H48" s="290" t="s">
+      <c r="G48" s="320"/>
+      <c r="H48" s="319" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="292"/>
-      <c r="J48" s="292"/>
-      <c r="K48" s="291"/>
-      <c r="L48" s="311" t="s">
+      <c r="I48" s="330"/>
+      <c r="J48" s="330"/>
+      <c r="K48" s="320"/>
+      <c r="L48" s="326" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="300"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="294" t="s">
+      <c r="B49" s="315"/>
+      <c r="C49" s="316"/>
+      <c r="D49" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="296" t="s">
+      <c r="E49" s="311" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="294" t="s">
+      <c r="F49" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="296" t="s">
+      <c r="G49" s="311" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="314" t="s">
+      <c r="H49" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="I49" s="315"/>
-      <c r="J49" s="315" t="s">
+      <c r="I49" s="300"/>
+      <c r="J49" s="300" t="s">
         <v>38</v>
       </c>
-      <c r="K49" s="325"/>
-      <c r="L49" s="312"/>
+      <c r="K49" s="301"/>
+      <c r="L49" s="327"/>
     </row>
     <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="302"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="295"/>
-      <c r="E50" s="297"/>
-      <c r="F50" s="295"/>
-      <c r="G50" s="297"/>
+      <c r="B50" s="317"/>
+      <c r="C50" s="318"/>
+      <c r="D50" s="307"/>
+      <c r="E50" s="312"/>
+      <c r="F50" s="307"/>
+      <c r="G50" s="312"/>
       <c r="H50" s="141" t="s">
         <v>49</v>
       </c>
@@ -7081,13 +7105,13 @@
       <c r="K50" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="L50" s="313"/>
+      <c r="L50" s="328"/>
     </row>
     <row r="51" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="306" t="s">
+      <c r="B51" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="307"/>
+      <c r="C51" s="324"/>
       <c r="D51" s="145">
         <f>'Nilai Kurikulum 2013'!AC26</f>
         <v>32</v>
@@ -7126,10 +7150,10 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="308" t="s">
+      <c r="B52" s="302" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="309"/>
+      <c r="C52" s="303"/>
       <c r="D52" s="152">
         <f>'Nilai Kurikulum 2013'!AC27</f>
         <v>1</v>
@@ -7168,10 +7192,10 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="308" t="s">
+      <c r="B53" s="302" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="309"/>
+      <c r="C53" s="303"/>
       <c r="D53" s="152">
         <f>'Nilai Kurikulum 2013'!AC28</f>
         <v>5</v>
@@ -7210,10 +7234,10 @@
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="308" t="s">
+      <c r="B54" s="302" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="309"/>
+      <c r="C54" s="303"/>
       <c r="D54" s="152">
         <f>'Nilai Kurikulum 2013'!AC29</f>
         <v>11</v>
@@ -7252,10 +7276,10 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="326" t="s">
+      <c r="B55" s="304" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="327"/>
+      <c r="C55" s="305"/>
       <c r="D55" s="158">
         <f>'Nilai Kurikulum 2013'!AC30</f>
         <v>0</v>
@@ -7294,10 +7318,10 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="304" t="s">
+      <c r="B56" s="321" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="305"/>
+      <c r="C56" s="322"/>
       <c r="D56" s="165">
         <f>'Nilai Kurikulum 2013'!AC31</f>
         <v>49</v>
@@ -7335,20 +7359,20 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="310" t="str">
+      <c r="B57" s="325" t="str">
         <f ca="1">IF(L55="Tidak*","* Pengecualian hanya diberikan kepada mahasiswa angkatan 2006 s.d. 2010 eks Sub-Jurusan TIB Kurikulum 2008, data harus sesuai dengan Lembar Konversi Kurikulum 2013 dan sudah diperiksa oleh pimpinan jurusan","")</f>
         <v/>
       </c>
-      <c r="C57" s="310"/>
-      <c r="D57" s="310"/>
-      <c r="E57" s="310"/>
-      <c r="F57" s="310"/>
-      <c r="G57" s="310"/>
-      <c r="H57" s="310"/>
-      <c r="I57" s="310"/>
-      <c r="J57" s="310"/>
-      <c r="K57" s="310"/>
-      <c r="L57" s="310"/>
+      <c r="C57" s="325"/>
+      <c r="D57" s="325"/>
+      <c r="E57" s="325"/>
+      <c r="F57" s="325"/>
+      <c r="G57" s="325"/>
+      <c r="H57" s="325"/>
+      <c r="I57" s="325"/>
+      <c r="J57" s="325"/>
+      <c r="K57" s="325"/>
+      <c r="L57" s="325"/>
     </row>
     <row r="58" spans="2:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="172"/>
@@ -7446,11 +7470,11 @@
     </row>
     <row r="62" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="293" t="s">
+      <c r="B63" s="296" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="293"/>
-      <c r="D63" s="293"/>
+      <c r="C63" s="296"/>
+      <c r="D63" s="296"/>
       <c r="E63" s="237" t="s">
         <v>34</v>
       </c>
@@ -7460,149 +7484,206 @@
       </c>
     </row>
     <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="293" t="s">
+      <c r="B64" s="296" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="293"/>
-      <c r="D64" s="293"/>
+      <c r="C64" s="296"/>
+      <c r="D64" s="296"/>
       <c r="E64" s="237" t="s">
         <v>34</v>
       </c>
       <c r="F64" s="182">
         <f>'Data Diri'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="296" t="s">
         <v>66</v>
       </c>
-      <c r="H64" s="293"/>
+      <c r="H64" s="296"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="293" t="s">
+      <c r="B65" s="296" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="293"/>
-      <c r="D65" s="293"/>
+      <c r="C65" s="296"/>
+      <c r="D65" s="296"/>
       <c r="E65" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="324" t="str">
+      <c r="F65" s="299" t="str">
         <f ca="1">IF(F63&lt;=2.75,"Memuaskan",IF(F63&lt;=3.5,"Sangat Memuaskan",IF(F64&lt;=9,"Dengan Pujian","Sangat Memuaskan")))</f>
         <v>Sangat Memuaskan</v>
       </c>
-      <c r="G65" s="324"/>
-      <c r="H65" s="324"/>
+      <c r="G65" s="299"/>
+      <c r="H65" s="299"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="293" t="s">
+      <c r="B66" s="296" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="293"/>
-      <c r="D66" s="293"/>
+      <c r="C66" s="296"/>
+      <c r="D66" s="296"/>
       <c r="E66" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="324" t="str">
+      <c r="F66" s="299" t="str">
         <f>'Data Diri'!E44</f>
         <v>13 Januari 2017</v>
       </c>
-      <c r="G66" s="324"/>
-      <c r="H66" s="324"/>
+      <c r="G66" s="299"/>
+      <c r="H66" s="299"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="185"/>
-      <c r="B68" s="328" t="str">
+      <c r="B68" s="292" t="str">
         <f ca="1">"Bandung, "&amp;TEXT('Data Diri'!C47,"[$-421] dd mmmm yyyy")</f>
-        <v>Bandung,  19 Juli 2017</v>
-      </c>
-      <c r="C68" s="328"/>
-      <c r="D68" s="328"/>
-      <c r="E68" s="328"/>
-      <c r="F68" s="328"/>
-      <c r="G68" s="328"/>
-      <c r="H68" s="328"/>
-      <c r="I68" s="328"/>
-      <c r="J68" s="328"/>
-      <c r="K68" s="328"/>
-      <c r="L68" s="328"/>
+        <v>Bandung,  28 Juli 2017</v>
+      </c>
+      <c r="C68" s="292"/>
+      <c r="D68" s="292"/>
+      <c r="E68" s="292"/>
+      <c r="F68" s="292"/>
+      <c r="G68" s="292"/>
+      <c r="H68" s="292"/>
+      <c r="I68" s="292"/>
+      <c r="J68" s="292"/>
+      <c r="K68" s="292"/>
+      <c r="L68" s="292"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="321" t="str">
+      <c r="B74" s="289" t="str">
         <f>'Data Diri'!C45</f>
         <v>Mariskha Tri Adithia, P.D.Eng</v>
       </c>
-      <c r="C74" s="321"/>
-      <c r="D74" s="321"/>
-      <c r="E74" s="321"/>
-      <c r="F74" s="321"/>
+      <c r="C74" s="289"/>
+      <c r="D74" s="289"/>
+      <c r="E74" s="289"/>
+      <c r="F74" s="289"/>
       <c r="H74" s="183"/>
-      <c r="I74" s="321" t="str">
+      <c r="I74" s="289" t="str">
         <f>'Data Diri'!C10</f>
         <v>Lucky Senjaya Darmawan</v>
       </c>
-      <c r="J74" s="321"/>
-      <c r="K74" s="321"/>
-      <c r="L74" s="321"/>
+      <c r="J74" s="289"/>
+      <c r="K74" s="289"/>
+      <c r="L74" s="289"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="320" t="s">
+      <c r="B75" s="290" t="s">
         <v>593</v>
       </c>
-      <c r="C75" s="320"/>
-      <c r="D75" s="320"/>
-      <c r="E75" s="320"/>
-      <c r="F75" s="320"/>
+      <c r="C75" s="290"/>
+      <c r="D75" s="290"/>
+      <c r="E75" s="290"/>
+      <c r="F75" s="290"/>
       <c r="H75" s="127"/>
-      <c r="I75" s="320" t="s">
+      <c r="I75" s="290" t="s">
         <v>69</v>
       </c>
-      <c r="J75" s="320"/>
-      <c r="K75" s="320"/>
-      <c r="L75" s="320"/>
+      <c r="J75" s="290"/>
+      <c r="K75" s="290"/>
+      <c r="L75" s="290"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="183"/>
-      <c r="B81" s="321" t="str">
+      <c r="B81" s="289" t="str">
         <f>'Data Diri'!C46</f>
         <v>Dr.rer.nat. Cecilia Esti Nugraheni</v>
       </c>
-      <c r="C81" s="321"/>
-      <c r="D81" s="321"/>
-      <c r="E81" s="321"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="321"/>
-      <c r="H81" s="321"/>
-      <c r="I81" s="321"/>
-      <c r="J81" s="321"/>
-      <c r="K81" s="321"/>
-      <c r="L81" s="321"/>
+      <c r="C81" s="289"/>
+      <c r="D81" s="289"/>
+      <c r="E81" s="289"/>
+      <c r="F81" s="289"/>
+      <c r="G81" s="289"/>
+      <c r="H81" s="289"/>
+      <c r="I81" s="289"/>
+      <c r="J81" s="289"/>
+      <c r="K81" s="289"/>
+      <c r="L81" s="289"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="127"/>
-      <c r="B82" s="320" t="s">
+      <c r="B82" s="290" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="320"/>
-      <c r="D82" s="320"/>
-      <c r="E82" s="320"/>
-      <c r="F82" s="320"/>
-      <c r="G82" s="320"/>
-      <c r="H82" s="320"/>
-      <c r="I82" s="320"/>
-      <c r="J82" s="320"/>
-      <c r="K82" s="320"/>
-      <c r="L82" s="320"/>
+      <c r="C82" s="290"/>
+      <c r="D82" s="290"/>
+      <c r="E82" s="290"/>
+      <c r="F82" s="290"/>
+      <c r="G82" s="290"/>
+      <c r="H82" s="290"/>
+      <c r="I82" s="290"/>
+      <c r="J82" s="290"/>
+      <c r="K82" s="290"/>
+      <c r="L82" s="290"/>
     </row>
   </sheetData>
   <sheetProtection password="882B" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0" selectUnlockedCells="1"/>
   <autoFilter ref="B13:B44">
     <filterColumn colId="0">
       <filters>
+        <filter val="AIF311"/>
         <filter val="OK"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="72">
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B48:C50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="B82:L82"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="I74:L74"/>
     <mergeCell ref="I75:L75"/>
     <mergeCell ref="B2:L2"/>
@@ -7619,62 +7700,6 @@
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
-    <mergeCell ref="B82:L82"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B48:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F52:G56">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
@@ -7691,7 +7716,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -7706,13 +7731,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="291" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
       <c r="F1" s="184"/>
       <c r="G1" s="184"/>
       <c r="H1" s="184"/>
@@ -7722,13 +7747,13 @@
       <c r="L1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="291" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
       <c r="F2" s="184"/>
       <c r="G2" s="184"/>
       <c r="H2" s="184"/>
@@ -7738,13 +7763,13 @@
       <c r="L2" s="186"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
       <c r="F4" s="187"/>
       <c r="G4" s="187"/>
       <c r="H4" s="187"/>
@@ -7797,7 +7822,7 @@
       </c>
       <c r="C9" s="333" t="str">
         <f>'Data Diri'!C11&amp;" / "&amp;'Data Diri'!E12</f>
-        <v>Tidak perlu diisi, diisi di Form Pendaftaran Wisuda / 28 Januari 1994</v>
+        <v>Tasikmalaya / 28 Januari 1994</v>
       </c>
       <c r="D9" s="333"/>
       <c r="E9" s="333"/>
@@ -7811,7 +7836,7 @@
       </c>
       <c r="C10" s="331" t="str">
         <f>'Data Diri'!C13&amp;" , "&amp;'Data Diri'!C14&amp;" - "&amp;'Data Diri'!C15&amp;" - "&amp;'Data Diri'!C16</f>
-        <v xml:space="preserve"> ,  -  - </v>
+        <v>Jl. Perintis Kemerdekaan Ruko 4 Toko Sinar Surya , Tasikmalaya - Jawa Barat - 46126</v>
       </c>
       <c r="D10" s="331"/>
       <c r="E10" s="331"/>
@@ -7823,9 +7848,9 @@
       <c r="B11" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="332">
+      <c r="C11" s="332" t="str">
         <f>'Data Diri'!C17</f>
-        <v>0</v>
+        <v>089662030340</v>
       </c>
       <c r="D11" s="332"/>
       <c r="E11" s="332"/>
@@ -7837,9 +7862,9 @@
       <c r="B12" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="332">
+      <c r="C12" s="332" t="str">
         <f>'Data Diri'!C18</f>
-        <v>0</v>
+        <v>lucky.kls9b@gmail.com</v>
       </c>
       <c r="D12" s="332"/>
       <c r="E12" s="332"/>
@@ -7853,7 +7878,7 @@
       </c>
       <c r="C13" s="331" t="str">
         <f>'Data Diri'!C23&amp;" , "&amp;'Data Diri'!C24&amp;" - "&amp;'Data Diri'!C25&amp;" - "&amp;'Data Diri'!C26</f>
-        <v xml:space="preserve"> ,  -  - </v>
+        <v>Jl. Perintis Kemerdekaan Ruko 4 Toko Sinar Surya , Tasikmalaya - Jawa Barat - 46126</v>
       </c>
       <c r="D13" s="331"/>
       <c r="E13" s="331"/>
@@ -7865,9 +7890,9 @@
       <c r="B14" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="332">
+      <c r="C14" s="332" t="str">
         <f>'Data Diri'!C27</f>
-        <v>0</v>
+        <v>(0265) 330488</v>
       </c>
       <c r="D14" s="332"/>
       <c r="E14" s="332"/>
@@ -7888,7 +7913,7 @@
       </c>
       <c r="C16" s="332" t="str">
         <f>'Data Diri'!C30&amp;" Semester"</f>
-        <v xml:space="preserve"> Semester</v>
+        <v>10 Semester</v>
       </c>
       <c r="D16" s="332"/>
       <c r="E16" s="332"/>
@@ -7902,7 +7927,7 @@
       </c>
       <c r="C17" s="332" t="str">
         <f>'Data Diri'!C31&amp;" Semester"</f>
-        <v xml:space="preserve"> Semester</v>
+        <v>0 Semester</v>
       </c>
       <c r="D17" s="332"/>
       <c r="E17" s="332"/>
@@ -7923,7 +7948,7 @@
       </c>
       <c r="C19" s="332" t="str">
         <f>'Data Diri'!C34&amp;" Semester"</f>
-        <v xml:space="preserve"> Semester</v>
+        <v>1 Semester</v>
       </c>
       <c r="D19" s="332"/>
       <c r="E19" s="332"/>
@@ -7944,9 +7969,9 @@
       <c r="B21" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="331">
+      <c r="C21" s="331" t="str">
         <f>'Data Diri'!C35</f>
-        <v>0</v>
+        <v>STUDI DAN INTEGRASI WORKFLOW MENGGUNAKAN BPMS DAN SISTEM EMAIL</v>
       </c>
       <c r="D21" s="331"/>
       <c r="E21" s="331"/>
@@ -7958,9 +7983,9 @@
       <c r="B22" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="331">
+      <c r="C22" s="331" t="str">
         <f>'Data Diri'!C36</f>
-        <v>0</v>
+        <v>WORKFLOW STUDY AND INTEGRATION USING BPMS AND EMAIL SYSTEM</v>
       </c>
       <c r="D22" s="331"/>
       <c r="E22" s="331"/>
@@ -7988,16 +8013,16 @@
       <c r="B25" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="238">
+      <c r="C25" s="238" t="str">
         <f>'Data Diri'!C37</f>
-        <v>0</v>
+        <v>Gede Karya, M.T., CISA</v>
       </c>
       <c r="D25" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="192" t="e">
+      <c r="E25" s="192">
         <f>VLOOKUP(C25,'Data Diri'!$A$53:$B$73,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>21894</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="189" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8035,7 +8060,7 @@
       </c>
       <c r="C28" s="238" t="str">
         <f>'Data Diri'!E39</f>
-        <v>00 Januari 1900</v>
+        <v>30 Mei 2017</v>
       </c>
       <c r="D28" s="188"/>
       <c r="E28" s="188"/>
@@ -8056,16 +8081,16 @@
       <c r="B30" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="238">
+      <c r="C30" s="238" t="str">
         <f>'Data Diri'!C40</f>
-        <v>0</v>
+        <v>Dr. Veronica Sri Moertini</v>
       </c>
       <c r="D30" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="192" t="e">
+      <c r="E30" s="192">
         <f>VLOOKUP(C30,'Data Diri'!$A$53:$B$73,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>21991</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="189" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -8075,16 +8100,16 @@
       <c r="B31" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="238">
+      <c r="C31" s="238" t="str">
         <f>'Data Diri'!C41</f>
-        <v>0</v>
+        <v>Rosa De Lima, M.Kom.</v>
       </c>
       <c r="D31" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="192" t="e">
+      <c r="E31" s="192">
         <f>VLOOKUP(C31,'Data Diri'!$A$53:$B$73,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>11271</v>
       </c>
     </row>
   </sheetData>
@@ -8117,7 +8142,7 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
@@ -8138,44 +8163,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="334" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="339"/>
-      <c r="O1" s="339"/>
-      <c r="P1" s="339"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="334" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="339"/>
-      <c r="N2" s="339"/>
-      <c r="O2" s="339"/>
-      <c r="P2" s="339"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
@@ -8202,29 +8227,29 @@
       <c r="C4" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="341" t="str">
+      <c r="D4" s="336" t="str">
         <f>'Data Diri'!C10</f>
         <v>Lucky Senjaya Darmawan</v>
       </c>
-      <c r="E4" s="341"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="336"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
       <c r="K4" s="70" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="341">
+      <c r="M4" s="336">
         <f>'Data Diri'!C9</f>
         <v>2012730009</v>
       </c>
-      <c r="N4" s="341"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="341"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="336"/>
       <c r="Q4" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="12" x14ac:dyDescent="0.2">
@@ -8280,16 +8305,16 @@
         <f ca="1">IF(G8&lt;&gt;"",VLOOKUP(G8,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>4</v>
       </c>
-      <c r="I8" s="335" t="str">
+      <c r="I8" s="338" t="str">
         <f ca="1">IF(G8&lt;&gt;"",VLOOKUP(G8,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Algoritma dan Struktur Data</v>
       </c>
-      <c r="J8" s="335"/>
-      <c r="K8" s="335"/>
-      <c r="L8" s="335"/>
-      <c r="M8" s="335"/>
-      <c r="N8" s="335"/>
-      <c r="O8" s="335"/>
+      <c r="J8" s="338"/>
+      <c r="K8" s="338"/>
+      <c r="L8" s="338"/>
+      <c r="M8" s="338"/>
+      <c r="N8" s="338"/>
+      <c r="O8" s="338"/>
       <c r="P8" s="4" t="str">
         <f ca="1">IF(G8&lt;&gt;"",VLOOKUP(G8,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>A</v>
@@ -8322,16 +8347,16 @@
         <f>VLOOKUP(G9,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I9" s="335" t="str">
+      <c r="I9" s="338" t="str">
         <f>VLOOKUP(G9,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>Logika Informatika</v>
       </c>
-      <c r="J9" s="335"/>
-      <c r="K9" s="335"/>
-      <c r="L9" s="335"/>
-      <c r="M9" s="335"/>
-      <c r="N9" s="335"/>
-      <c r="O9" s="335"/>
+      <c r="J9" s="338"/>
+      <c r="K9" s="338"/>
+      <c r="L9" s="338"/>
+      <c r="M9" s="338"/>
+      <c r="N9" s="338"/>
+      <c r="O9" s="338"/>
       <c r="P9" s="4" t="str">
         <f ca="1">VLOOKUP(G9,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE)</f>
         <v>B</v>
@@ -8364,16 +8389,16 @@
         <f>VLOOKUP(G10,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I10" s="335" t="str">
+      <c r="I10" s="338" t="str">
         <f>VLOOKUP(G10,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>Sistem Dijital</v>
       </c>
-      <c r="J10" s="335"/>
-      <c r="K10" s="335"/>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
+      <c r="J10" s="338"/>
+      <c r="K10" s="338"/>
+      <c r="L10" s="338"/>
+      <c r="M10" s="338"/>
+      <c r="N10" s="338"/>
+      <c r="O10" s="338"/>
       <c r="P10" s="4" t="str">
         <f ca="1">VLOOKUP(G10,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE)</f>
         <v>C</v>
@@ -8407,16 +8432,16 @@
         <f ca="1">IF(G11&lt;&gt;"",VLOOKUP(G11,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>4</v>
       </c>
-      <c r="I11" s="335" t="str">
+      <c r="I11" s="338" t="str">
         <f ca="1">IF(G11&lt;&gt;"",VLOOKUP(G11,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Matematika Informatika</v>
       </c>
-      <c r="J11" s="335"/>
-      <c r="K11" s="335"/>
-      <c r="L11" s="335"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="335"/>
-      <c r="O11" s="335"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="338"/>
+      <c r="M11" s="338"/>
+      <c r="N11" s="338"/>
+      <c r="O11" s="338"/>
       <c r="P11" s="4" t="str">
         <f ca="1">IF(G11&lt;&gt;"",VLOOKUP(G11,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>A</v>
@@ -8449,16 +8474,16 @@
         <f>VLOOKUP(G12,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I12" s="335" t="str">
+      <c r="I12" s="338" t="str">
         <f>VLOOKUP(G12,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>Bahasa Indonesia</v>
       </c>
-      <c r="J12" s="335"/>
-      <c r="K12" s="335"/>
-      <c r="L12" s="335"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="335"/>
-      <c r="O12" s="335"/>
+      <c r="J12" s="338"/>
+      <c r="K12" s="338"/>
+      <c r="L12" s="338"/>
+      <c r="M12" s="338"/>
+      <c r="N12" s="338"/>
+      <c r="O12" s="338"/>
       <c r="P12" s="4" t="str">
         <f ca="1">VLOOKUP(G12,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE)</f>
         <v>B</v>
@@ -8491,16 +8516,16 @@
         <f>VLOOKUP(G13,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="335" t="str">
+      <c r="I13" s="338" t="str">
         <f>VLOOKUP(G13,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>Estetika</v>
       </c>
-      <c r="J13" s="335"/>
-      <c r="K13" s="335"/>
-      <c r="L13" s="335"/>
-      <c r="M13" s="335"/>
-      <c r="N13" s="335"/>
-      <c r="O13" s="335"/>
+      <c r="J13" s="338"/>
+      <c r="K13" s="338"/>
+      <c r="L13" s="338"/>
+      <c r="M13" s="338"/>
+      <c r="N13" s="338"/>
+      <c r="O13" s="338"/>
       <c r="P13" s="4" t="str">
         <f ca="1">VLOOKUP(G13,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE)</f>
         <v>B</v>
@@ -8563,16 +8588,16 @@
         <f ca="1">IF(G16&lt;&gt;"",VLOOKUP(G16,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>4</v>
       </c>
-      <c r="I16" s="335" t="str">
+      <c r="I16" s="338" t="str">
         <f ca="1">IF(G16&lt;&gt;"",VLOOKUP(G16,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Desain dan Analisis Algoritma</v>
       </c>
-      <c r="J16" s="335"/>
-      <c r="K16" s="335"/>
-      <c r="L16" s="335"/>
-      <c r="M16" s="335"/>
-      <c r="N16" s="335"/>
-      <c r="O16" s="335"/>
+      <c r="J16" s="338"/>
+      <c r="K16" s="338"/>
+      <c r="L16" s="338"/>
+      <c r="M16" s="338"/>
+      <c r="N16" s="338"/>
+      <c r="O16" s="338"/>
       <c r="P16" s="4" t="str">
         <f ca="1">IF(G16&lt;&gt;"",VLOOKUP(G16,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>B</v>
@@ -8607,16 +8632,16 @@
         <f ca="1">IF(G17&lt;&gt;"",VLOOKUP(G17,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>4</v>
       </c>
-      <c r="I17" s="335" t="str">
+      <c r="I17" s="338" t="str">
         <f ca="1">IF(G17&lt;&gt;"",VLOOKUP(G17,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Manajemen Informasi dan Basisdata</v>
       </c>
-      <c r="J17" s="335"/>
-      <c r="K17" s="335"/>
-      <c r="L17" s="335"/>
-      <c r="M17" s="335"/>
-      <c r="N17" s="335"/>
-      <c r="O17" s="335"/>
+      <c r="J17" s="338"/>
+      <c r="K17" s="338"/>
+      <c r="L17" s="338"/>
+      <c r="M17" s="338"/>
+      <c r="N17" s="338"/>
+      <c r="O17" s="338"/>
       <c r="P17" s="4" t="str">
         <f ca="1">IF(G17&lt;&gt;"",VLOOKUP(G17,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>D</v>
@@ -8649,16 +8674,16 @@
         <f>VLOOKUP(G18,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I18" s="335" t="str">
+      <c r="I18" s="338" t="str">
         <f>VLOOKUP(G18,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v>Sistem Operasi</v>
       </c>
-      <c r="J18" s="335"/>
-      <c r="K18" s="335"/>
-      <c r="L18" s="335"/>
-      <c r="M18" s="335"/>
-      <c r="N18" s="335"/>
-      <c r="O18" s="335"/>
+      <c r="J18" s="338"/>
+      <c r="K18" s="338"/>
+      <c r="L18" s="338"/>
+      <c r="M18" s="338"/>
+      <c r="N18" s="338"/>
+      <c r="O18" s="338"/>
       <c r="P18" s="4" t="str">
         <f ca="1">VLOOKUP(G18,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE)</f>
         <v>A</v>
@@ -8692,16 +8717,16 @@
         <f ca="1">IF(G19&lt;&gt;"",VLOOKUP(G19,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>4</v>
       </c>
-      <c r="I19" s="335" t="str">
+      <c r="I19" s="338" t="str">
         <f ca="1">IF(G19&lt;&gt;"",VLOOKUP(G19,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Rekayasa Perangkat Lunak</v>
       </c>
-      <c r="J19" s="335"/>
-      <c r="K19" s="335"/>
-      <c r="L19" s="335"/>
-      <c r="M19" s="335"/>
-      <c r="N19" s="335"/>
-      <c r="O19" s="335"/>
+      <c r="J19" s="338"/>
+      <c r="K19" s="338"/>
+      <c r="L19" s="338"/>
+      <c r="M19" s="338"/>
+      <c r="N19" s="338"/>
+      <c r="O19" s="338"/>
       <c r="P19" s="4" t="str">
         <f ca="1">IF(G19&lt;&gt;"",VLOOKUP(G19,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>C</v>
@@ -8736,16 +8761,16 @@
         <f ca="1">IF(G20&lt;&gt;"",VLOOKUP(G20,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>2</v>
       </c>
-      <c r="I20" s="335" t="str">
+      <c r="I20" s="338" t="str">
         <f ca="1">IF(G20&lt;&gt;"",VLOOKUP(G20,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Interaksi Manusia Komputer</v>
       </c>
-      <c r="J20" s="335"/>
-      <c r="K20" s="335"/>
-      <c r="L20" s="335"/>
-      <c r="M20" s="335"/>
-      <c r="N20" s="335"/>
-      <c r="O20" s="335"/>
+      <c r="J20" s="338"/>
+      <c r="K20" s="338"/>
+      <c r="L20" s="338"/>
+      <c r="M20" s="338"/>
+      <c r="N20" s="338"/>
+      <c r="O20" s="338"/>
       <c r="P20" s="4" t="str">
         <f ca="1">IF(G20&lt;&gt;"",VLOOKUP(G20,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>B</v>
@@ -8829,16 +8854,16 @@
         <f>VLOOKUP(G24,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I24" s="335" t="str">
+      <c r="I24" s="338" t="str">
         <f>VLOOKUP(G24,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE)</f>
         <v xml:space="preserve">Penulisan Ilmiah </v>
       </c>
-      <c r="J24" s="335"/>
-      <c r="K24" s="335"/>
-      <c r="L24" s="335"/>
-      <c r="M24" s="335"/>
-      <c r="N24" s="335"/>
-      <c r="O24" s="335"/>
+      <c r="J24" s="338"/>
+      <c r="K24" s="338"/>
+      <c r="L24" s="338"/>
+      <c r="M24" s="338"/>
+      <c r="N24" s="338"/>
+      <c r="O24" s="338"/>
       <c r="P24" s="4" t="str">
         <f ca="1">VLOOKUP(G24,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE)</f>
         <v>B</v>
@@ -8872,16 +8897,16 @@
         <f ca="1">IF(G25&lt;&gt;"",VLOOKUP(G25,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>6</v>
       </c>
-      <c r="I25" s="335" t="str">
+      <c r="I25" s="338" t="str">
         <f ca="1">IF(G25&lt;&gt;"",VLOOKUP(G25,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Proyek Informatika</v>
       </c>
-      <c r="J25" s="335"/>
-      <c r="K25" s="335"/>
-      <c r="L25" s="335"/>
-      <c r="M25" s="335"/>
-      <c r="N25" s="335"/>
-      <c r="O25" s="335"/>
+      <c r="J25" s="338"/>
+      <c r="K25" s="338"/>
+      <c r="L25" s="338"/>
+      <c r="M25" s="338"/>
+      <c r="N25" s="338"/>
+      <c r="O25" s="338"/>
       <c r="P25" s="4" t="str">
         <f ca="1">IF(G25&lt;&gt;"",VLOOKUP(G25,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>A</v>
@@ -8988,16 +9013,16 @@
         <f ca="1">IF(G30&lt;&gt;"",VLOOKUP(G30,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>6</v>
       </c>
-      <c r="I30" s="338" t="str">
+      <c r="I30" s="341" t="str">
         <f ca="1">IF(G30&lt;&gt;"",VLOOKUP(G30,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Skripsi 2</v>
       </c>
-      <c r="J30" s="338"/>
-      <c r="K30" s="338"/>
-      <c r="L30" s="338"/>
-      <c r="M30" s="338"/>
-      <c r="N30" s="338"/>
-      <c r="O30" s="338"/>
+      <c r="J30" s="341"/>
+      <c r="K30" s="341"/>
+      <c r="L30" s="341"/>
+      <c r="M30" s="341"/>
+      <c r="N30" s="341"/>
+      <c r="O30" s="341"/>
       <c r="P30" s="4" t="str">
         <f ca="1">IF(G30&lt;&gt;"",VLOOKUP(G30,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>B</v>
@@ -9032,16 +9057,16 @@
         <f ca="1">IF(G31&lt;&gt;"",VLOOKUP(G31,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>2</v>
       </c>
-      <c r="I31" s="338" t="str">
+      <c r="I31" s="341" t="str">
         <f ca="1">IF(G31&lt;&gt;"",VLOOKUP(G31,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v xml:space="preserve">Etika Profesi </v>
       </c>
-      <c r="J31" s="338"/>
-      <c r="K31" s="338"/>
-      <c r="L31" s="338"/>
-      <c r="M31" s="338"/>
-      <c r="N31" s="338"/>
-      <c r="O31" s="338"/>
+      <c r="J31" s="341"/>
+      <c r="K31" s="341"/>
+      <c r="L31" s="341"/>
+      <c r="M31" s="341"/>
+      <c r="N31" s="341"/>
+      <c r="O31" s="341"/>
       <c r="P31" s="4" t="str">
         <f ca="1">IF(G31&lt;&gt;"",VLOOKUP(G31,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>A</v>
@@ -9138,16 +9163,16 @@
         <f ca="1">IF(G36&lt;&gt;"",VLOOKUP(G36,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>2</v>
       </c>
-      <c r="I36" s="335" t="str">
+      <c r="I36" s="338" t="str">
         <f ca="1">IF(G36&lt;&gt;"",VLOOKUP(G36,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Keamanan Informasi</v>
       </c>
-      <c r="J36" s="335"/>
-      <c r="K36" s="335"/>
-      <c r="L36" s="335"/>
-      <c r="M36" s="335"/>
-      <c r="N36" s="335"/>
-      <c r="O36" s="335"/>
+      <c r="J36" s="338"/>
+      <c r="K36" s="338"/>
+      <c r="L36" s="338"/>
+      <c r="M36" s="338"/>
+      <c r="N36" s="338"/>
+      <c r="O36" s="338"/>
       <c r="P36" s="4" t="str">
         <f ca="1">IF(G36&lt;&gt;"",VLOOKUP(G36,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>C</v>
@@ -9182,16 +9207,16 @@
         <f ca="1">IF(G37&lt;&gt;"",VLOOKUP(G37,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I37" s="335" t="str">
+      <c r="I37" s="338" t="str">
         <f ca="1">IF(G37&lt;&gt;"",VLOOKUP(G37,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J37" s="335"/>
-      <c r="K37" s="335"/>
-      <c r="L37" s="335"/>
-      <c r="M37" s="335"/>
-      <c r="N37" s="335"/>
-      <c r="O37" s="335"/>
+      <c r="J37" s="338"/>
+      <c r="K37" s="338"/>
+      <c r="L37" s="338"/>
+      <c r="M37" s="338"/>
+      <c r="N37" s="338"/>
+      <c r="O37" s="338"/>
       <c r="P37" s="4" t="str">
         <f ca="1">IF(G37&lt;&gt;"",VLOOKUP(G37,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v/>
@@ -9226,16 +9251,16 @@
         <f ca="1">IF(G38&lt;&gt;"",VLOOKUP(G38,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I38" s="335" t="str">
+      <c r="I38" s="338" t="str">
         <f ca="1">IF(G38&lt;&gt;"",VLOOKUP(G38,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v/>
       </c>
-      <c r="J38" s="335"/>
-      <c r="K38" s="335"/>
-      <c r="L38" s="335"/>
-      <c r="M38" s="335"/>
-      <c r="N38" s="335"/>
-      <c r="O38" s="335"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="338"/>
+      <c r="L38" s="338"/>
+      <c r="M38" s="338"/>
+      <c r="N38" s="338"/>
+      <c r="O38" s="338"/>
       <c r="P38" s="4" t="str">
         <f ca="1">IF(G38&lt;&gt;"",VLOOKUP(G38,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v/>
@@ -9270,16 +9295,16 @@
         <f ca="1">IF(G39&lt;&gt;"",VLOOKUP(G39,'Nilai Kurikulum 2013'!$E$4:$O$175,2,FALSE),"")</f>
         <v>2</v>
       </c>
-      <c r="I39" s="335" t="str">
+      <c r="I39" s="338" t="str">
         <f ca="1">IF(G39&lt;&gt;"",VLOOKUP(G39,'Nilai Kurikulum 2013'!$E$4:$O$175,5,FALSE),"")</f>
         <v>Pemrograman Aplikasi Bergerak</v>
       </c>
-      <c r="J39" s="335"/>
-      <c r="K39" s="335"/>
-      <c r="L39" s="335"/>
-      <c r="M39" s="335"/>
-      <c r="N39" s="335"/>
-      <c r="O39" s="335"/>
+      <c r="J39" s="338"/>
+      <c r="K39" s="338"/>
+      <c r="L39" s="338"/>
+      <c r="M39" s="338"/>
+      <c r="N39" s="338"/>
+      <c r="O39" s="338"/>
       <c r="P39" s="4" t="str">
         <f ca="1">IF(G39&lt;&gt;"",VLOOKUP(G39,'Nilai Kurikulum 2013'!$E$4:$P$175,12,FALSE),"")</f>
         <v>B</v>
@@ -11959,9 +11984,9 @@
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="G163" s="336"/>
-      <c r="H163" s="337"/>
-      <c r="I163" s="336"/>
+      <c r="G163" s="339"/>
+      <c r="H163" s="340"/>
+      <c r="I163" s="339"/>
       <c r="J163" s="241" t="s">
         <v>57</v>
       </c>
@@ -11990,11 +12015,11 @@
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="G164" s="334" t="s">
+      <c r="G164" s="337" t="s">
         <v>240</v>
       </c>
-      <c r="H164" s="334"/>
-      <c r="I164" s="334"/>
+      <c r="H164" s="337"/>
+      <c r="I164" s="337"/>
       <c r="J164" s="47">
         <f t="shared" ref="J164" ca="1" si="3">COUNTIF($E$8:$E$162,J$163)+COUNTIF($P$8:$P$40,J$163)</f>
         <v>19</v>
@@ -12029,11 +12054,11 @@
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="G165" s="334" t="s">
+      <c r="G165" s="337" t="s">
         <v>241</v>
       </c>
-      <c r="H165" s="334"/>
-      <c r="I165" s="334"/>
+      <c r="H165" s="337"/>
+      <c r="I165" s="337"/>
       <c r="J165" s="47">
         <f ca="1">SUMIF($E$8:E162,J$163,$C$8:C162)+SUMIF($P$8:$P$40,J$163,$H$8:$H$40)</f>
         <v>61</v>
@@ -12079,10 +12104,10 @@
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="G167" s="335" t="s">
+      <c r="G167" s="338" t="s">
         <v>242</v>
       </c>
-      <c r="H167" s="335"/>
+      <c r="H167" s="338"/>
       <c r="I167" s="65">
         <f ca="1">ROUND(((J165*4)+(K165*3)+(L165*2)+M165)/O165,2)</f>
         <v>3.19</v>
@@ -12098,17 +12123,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="G164:I164"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="I20:O20"/>
     <mergeCell ref="G165:I165"/>
     <mergeCell ref="G167:H167"/>
     <mergeCell ref="G163:I163"/>
@@ -12125,6 +12139,17 @@
     <mergeCell ref="I31:O31"/>
     <mergeCell ref="I36:O36"/>
     <mergeCell ref="I37:O37"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="G164:I164"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="I20:O20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12139,8 +12164,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF185"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12309,7 +12334,7 @@
       <c r="B4" s="207">
         <v>1</v>
       </c>
-      <c r="C4" s="343">
+      <c r="C4" s="344">
         <v>1</v>
       </c>
       <c r="D4" s="11">
@@ -12409,7 +12434,7 @@
       <c r="B5" s="208">
         <v>2</v>
       </c>
-      <c r="C5" s="344"/>
+      <c r="C5" s="343"/>
       <c r="D5" s="14">
         <v>4</v>
       </c>
@@ -12506,7 +12531,7 @@
       <c r="B6" s="208">
         <v>3</v>
       </c>
-      <c r="C6" s="344"/>
+      <c r="C6" s="343"/>
       <c r="D6" s="14">
         <v>2</v>
       </c>
@@ -12607,7 +12632,7 @@
       <c r="B7" s="208">
         <v>4</v>
       </c>
-      <c r="C7" s="344"/>
+      <c r="C7" s="343"/>
       <c r="D7" s="14">
         <v>3</v>
       </c>
@@ -12709,7 +12734,7 @@
       <c r="B8" s="208">
         <v>5</v>
       </c>
-      <c r="C8" s="344"/>
+      <c r="C8" s="343"/>
       <c r="D8" s="14">
         <v>5</v>
       </c>
@@ -12809,7 +12834,7 @@
       <c r="B9" s="208">
         <v>6</v>
       </c>
-      <c r="C9" s="344"/>
+      <c r="C9" s="343"/>
       <c r="D9" s="14">
         <v>6</v>
       </c>
@@ -12909,7 +12934,7 @@
       <c r="B10" s="209">
         <v>7</v>
       </c>
-      <c r="C10" s="344"/>
+      <c r="C10" s="343"/>
       <c r="D10" s="14">
         <v>7</v>
       </c>
@@ -13001,7 +13026,7 @@
       <c r="B11" s="207">
         <v>8</v>
       </c>
-      <c r="C11" s="344">
+      <c r="C11" s="343">
         <v>2</v>
       </c>
       <c r="D11" s="14">
@@ -13092,7 +13117,7 @@
       <c r="B12" s="208">
         <v>11</v>
       </c>
-      <c r="C12" s="344"/>
+      <c r="C12" s="343"/>
       <c r="D12" s="14">
         <v>4</v>
       </c>
@@ -13173,7 +13198,7 @@
       <c r="B13" s="208">
         <v>9</v>
       </c>
-      <c r="C13" s="344"/>
+      <c r="C13" s="343"/>
       <c r="D13" s="14">
         <v>2</v>
       </c>
@@ -13271,7 +13296,7 @@
       <c r="B14" s="208">
         <v>10</v>
       </c>
-      <c r="C14" s="344"/>
+      <c r="C14" s="343"/>
       <c r="D14" s="14">
         <v>3</v>
       </c>
@@ -13369,7 +13394,7 @@
       <c r="B15" s="208">
         <v>12</v>
       </c>
-      <c r="C15" s="344"/>
+      <c r="C15" s="343"/>
       <c r="D15" s="14">
         <v>5</v>
       </c>
@@ -13481,7 +13506,7 @@
       <c r="B16" s="208">
         <v>13</v>
       </c>
-      <c r="C16" s="344"/>
+      <c r="C16" s="343"/>
       <c r="D16" s="14">
         <v>6</v>
       </c>
@@ -13585,7 +13610,7 @@
       <c r="B17" s="208">
         <v>14</v>
       </c>
-      <c r="C17" s="344"/>
+      <c r="C17" s="343"/>
       <c r="D17" s="14">
         <v>7</v>
       </c>
@@ -13692,7 +13717,7 @@
       <c r="B18" s="209">
         <v>15</v>
       </c>
-      <c r="C18" s="344"/>
+      <c r="C18" s="343"/>
       <c r="D18" s="14">
         <v>8</v>
       </c>
@@ -13775,7 +13800,7 @@
       <c r="B19" s="207">
         <v>16</v>
       </c>
-      <c r="C19" s="344">
+      <c r="C19" s="343">
         <v>3</v>
       </c>
       <c r="D19" s="14">
@@ -13867,7 +13892,7 @@
       <c r="B20" s="208">
         <v>17</v>
       </c>
-      <c r="C20" s="344"/>
+      <c r="C20" s="343"/>
       <c r="D20" s="14">
         <v>2</v>
       </c>
@@ -13959,7 +13984,7 @@
       <c r="B21" s="208">
         <v>18</v>
       </c>
-      <c r="C21" s="344"/>
+      <c r="C21" s="343"/>
       <c r="D21" s="14">
         <v>3</v>
       </c>
@@ -14052,7 +14077,7 @@
       <c r="B22" s="208">
         <v>19</v>
       </c>
-      <c r="C22" s="344"/>
+      <c r="C22" s="343"/>
       <c r="D22" s="14">
         <v>4</v>
       </c>
@@ -14145,7 +14170,7 @@
       <c r="B23" s="208">
         <v>20</v>
       </c>
-      <c r="C23" s="344"/>
+      <c r="C23" s="343"/>
       <c r="D23" s="14">
         <v>5</v>
       </c>
@@ -14231,7 +14256,7 @@
       <c r="B24" s="208">
         <v>21</v>
       </c>
-      <c r="C24" s="344"/>
+      <c r="C24" s="343"/>
       <c r="D24" s="14">
         <v>6</v>
       </c>
@@ -14316,7 +14341,7 @@
       <c r="B25" s="209">
         <v>22</v>
       </c>
-      <c r="C25" s="344"/>
+      <c r="C25" s="343"/>
       <c r="D25" s="14">
         <v>7</v>
       </c>
@@ -14408,7 +14433,7 @@
       <c r="B26" s="207">
         <v>23</v>
       </c>
-      <c r="C26" s="344">
+      <c r="C26" s="343">
         <v>4</v>
       </c>
       <c r="D26" s="14">
@@ -14511,7 +14536,7 @@
       <c r="B27" s="208">
         <v>28</v>
       </c>
-      <c r="C27" s="344"/>
+      <c r="C27" s="343"/>
       <c r="D27" s="14">
         <v>2</v>
       </c>
@@ -14603,7 +14628,7 @@
       <c r="B28" s="208">
         <v>24</v>
       </c>
-      <c r="C28" s="344"/>
+      <c r="C28" s="343"/>
       <c r="D28" s="14">
         <v>3</v>
       </c>
@@ -14702,7 +14727,7 @@
     </row>
     <row r="29" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="208"/>
-      <c r="C29" s="344"/>
+      <c r="C29" s="343"/>
       <c r="D29" s="14">
         <v>4</v>
       </c>
@@ -14794,7 +14819,7 @@
       <c r="B30" s="208">
         <v>25</v>
       </c>
-      <c r="C30" s="344"/>
+      <c r="C30" s="343"/>
       <c r="D30" s="14">
         <v>5</v>
       </c>
@@ -14891,7 +14916,7 @@
       <c r="B31" s="208">
         <v>26</v>
       </c>
-      <c r="C31" s="344"/>
+      <c r="C31" s="343"/>
       <c r="D31" s="14">
         <v>6</v>
       </c>
@@ -14986,7 +15011,7 @@
       <c r="B32" s="208">
         <v>27</v>
       </c>
-      <c r="C32" s="344"/>
+      <c r="C32" s="343"/>
       <c r="D32" s="14">
         <v>7</v>
       </c>
@@ -15075,7 +15100,7 @@
       <c r="B33" s="207">
         <v>30</v>
       </c>
-      <c r="C33" s="344">
+      <c r="C33" s="343">
         <v>5</v>
       </c>
       <c r="D33" s="14">
@@ -15166,7 +15191,7 @@
       <c r="B34" s="208">
         <v>31</v>
       </c>
-      <c r="C34" s="344"/>
+      <c r="C34" s="343"/>
       <c r="D34" s="14">
         <v>2</v>
       </c>
@@ -15264,7 +15289,7 @@
       <c r="B35" s="208">
         <v>32</v>
       </c>
-      <c r="C35" s="344"/>
+      <c r="C35" s="343"/>
       <c r="D35" s="14">
         <v>3</v>
       </c>
@@ -15362,7 +15387,7 @@
       <c r="B36" s="209">
         <v>33</v>
       </c>
-      <c r="C36" s="344"/>
+      <c r="C36" s="343"/>
       <c r="D36" s="14">
         <v>4</v>
       </c>
@@ -15469,7 +15494,7 @@
       <c r="B37" s="207">
         <v>34</v>
       </c>
-      <c r="C37" s="344">
+      <c r="C37" s="343">
         <v>6</v>
       </c>
       <c r="D37" s="14">
@@ -15578,7 +15603,7 @@
       <c r="B38" s="208">
         <v>35</v>
       </c>
-      <c r="C38" s="344"/>
+      <c r="C38" s="343"/>
       <c r="D38" s="14">
         <v>2</v>
       </c>
@@ -15682,7 +15707,7 @@
       <c r="B39" s="208">
         <v>36</v>
       </c>
-      <c r="C39" s="344"/>
+      <c r="C39" s="343"/>
       <c r="D39" s="14">
         <v>3</v>
       </c>
@@ -15768,7 +15793,7 @@
       <c r="B40" s="208">
         <v>37</v>
       </c>
-      <c r="C40" s="344"/>
+      <c r="C40" s="343"/>
       <c r="D40" s="14">
         <v>4</v>
       </c>
@@ -15853,7 +15878,7 @@
       <c r="B41" s="209">
         <v>38</v>
       </c>
-      <c r="C41" s="344"/>
+      <c r="C41" s="343"/>
       <c r="D41" s="14">
         <v>5</v>
       </c>
@@ -15931,7 +15956,7 @@
       <c r="B42" s="207">
         <v>39</v>
       </c>
-      <c r="C42" s="344">
+      <c r="C42" s="343">
         <v>7</v>
       </c>
       <c r="D42" s="14">
@@ -16019,7 +16044,7 @@
       <c r="B43" s="208">
         <v>40</v>
       </c>
-      <c r="C43" s="344"/>
+      <c r="C43" s="343"/>
       <c r="D43" s="14">
         <v>2</v>
       </c>
@@ -16097,7 +16122,7 @@
       <c r="B44" s="209">
         <v>41</v>
       </c>
-      <c r="C44" s="344"/>
+      <c r="C44" s="343"/>
       <c r="D44" s="14">
         <v>3</v>
       </c>
@@ -16183,7 +16208,7 @@
       <c r="B45" s="207">
         <v>42</v>
       </c>
-      <c r="C45" s="344">
+      <c r="C45" s="343">
         <v>8</v>
       </c>
       <c r="D45" s="14">
@@ -16271,7 +16296,7 @@
       <c r="B46" s="208">
         <v>43</v>
       </c>
-      <c r="C46" s="344"/>
+      <c r="C46" s="343"/>
       <c r="D46" s="14">
         <v>2</v>
       </c>
@@ -16349,7 +16374,7 @@
       <c r="B47" s="210">
         <v>44</v>
       </c>
-      <c r="C47" s="344"/>
+      <c r="C47" s="343"/>
       <c r="D47" s="14">
         <v>3</v>
       </c>
@@ -16435,7 +16460,7 @@
       <c r="B48" s="207">
         <v>45</v>
       </c>
-      <c r="C48" s="344">
+      <c r="C48" s="343">
         <v>5</v>
       </c>
       <c r="D48" s="14">
@@ -16523,7 +16548,7 @@
       <c r="B49" s="208">
         <v>46</v>
       </c>
-      <c r="C49" s="344"/>
+      <c r="C49" s="343"/>
       <c r="D49" s="14">
         <v>2</v>
       </c>
@@ -16607,7 +16632,7 @@
       <c r="B50" s="208">
         <v>47</v>
       </c>
-      <c r="C50" s="344"/>
+      <c r="C50" s="343"/>
       <c r="D50" s="14">
         <v>3</v>
       </c>
@@ -16691,7 +16716,7 @@
       <c r="B51" s="209">
         <v>48</v>
       </c>
-      <c r="C51" s="344"/>
+      <c r="C51" s="343"/>
       <c r="D51" s="14">
         <v>4</v>
       </c>
@@ -16775,7 +16800,7 @@
       <c r="B52" s="207">
         <v>49</v>
       </c>
-      <c r="C52" s="344">
+      <c r="C52" s="343">
         <v>6</v>
       </c>
       <c r="D52" s="14">
@@ -16861,7 +16886,7 @@
       <c r="B53" s="208">
         <v>50</v>
       </c>
-      <c r="C53" s="344"/>
+      <c r="C53" s="343"/>
       <c r="D53" s="14">
         <v>2</v>
       </c>
@@ -16945,7 +16970,7 @@
       <c r="B54" s="208">
         <v>51</v>
       </c>
-      <c r="C54" s="344"/>
+      <c r="C54" s="343"/>
       <c r="D54" s="14">
         <v>3</v>
       </c>
@@ -17029,7 +17054,7 @@
       <c r="B55" s="210">
         <v>52</v>
       </c>
-      <c r="C55" s="344"/>
+      <c r="C55" s="343"/>
       <c r="D55" s="14">
         <v>4</v>
       </c>
@@ -17113,7 +17138,7 @@
       <c r="B56" s="207">
         <v>53</v>
       </c>
-      <c r="C56" s="344">
+      <c r="C56" s="343">
         <v>1</v>
       </c>
       <c r="D56" s="14">
@@ -17199,7 +17224,7 @@
       <c r="B57" s="208">
         <v>54</v>
       </c>
-      <c r="C57" s="344"/>
+      <c r="C57" s="343"/>
       <c r="D57" s="14">
         <v>2</v>
       </c>
@@ -17283,7 +17308,7 @@
       <c r="B58" s="209">
         <v>55</v>
       </c>
-      <c r="C58" s="344"/>
+      <c r="C58" s="343"/>
       <c r="D58" s="14">
         <v>3</v>
       </c>
@@ -17367,7 +17392,7 @@
       <c r="B59" s="207">
         <v>56</v>
       </c>
-      <c r="C59" s="344">
+      <c r="C59" s="343">
         <v>2</v>
       </c>
       <c r="D59" s="14">
@@ -17453,7 +17478,7 @@
       <c r="B60" s="208">
         <v>57</v>
       </c>
-      <c r="C60" s="344"/>
+      <c r="C60" s="343"/>
       <c r="D60" s="14">
         <v>2</v>
       </c>
@@ -17537,7 +17562,7 @@
       <c r="B61" s="208">
         <v>58</v>
       </c>
-      <c r="C61" s="344"/>
+      <c r="C61" s="343"/>
       <c r="D61" s="14">
         <v>3</v>
       </c>
@@ -17621,7 +17646,7 @@
       <c r="B62" s="209">
         <v>59</v>
       </c>
-      <c r="C62" s="344"/>
+      <c r="C62" s="343"/>
       <c r="D62" s="14">
         <v>4</v>
       </c>
@@ -17791,7 +17816,7 @@
       <c r="B64" s="207">
         <v>61</v>
       </c>
-      <c r="C64" s="344">
+      <c r="C64" s="343">
         <v>4</v>
       </c>
       <c r="D64" s="14">
@@ -17877,7 +17902,7 @@
       <c r="B65" s="209">
         <v>62</v>
       </c>
-      <c r="C65" s="344"/>
+      <c r="C65" s="343"/>
       <c r="D65" s="14">
         <v>2</v>
       </c>
@@ -17961,7 +17986,7 @@
       <c r="B66" s="207">
         <v>63</v>
       </c>
-      <c r="C66" s="344">
+      <c r="C66" s="343">
         <v>5</v>
       </c>
       <c r="D66" s="14">
@@ -18047,7 +18072,7 @@
       <c r="B67" s="208">
         <v>64</v>
       </c>
-      <c r="C67" s="344"/>
+      <c r="C67" s="343"/>
       <c r="D67" s="14">
         <v>2</v>
       </c>
@@ -18131,7 +18156,7 @@
       <c r="B68" s="208">
         <v>65</v>
       </c>
-      <c r="C68" s="344"/>
+      <c r="C68" s="343"/>
       <c r="D68" s="14">
         <v>3</v>
       </c>
@@ -18215,7 +18240,7 @@
       <c r="B69" s="208">
         <v>66</v>
       </c>
-      <c r="C69" s="344"/>
+      <c r="C69" s="343"/>
       <c r="D69" s="14">
         <v>4</v>
       </c>
@@ -18299,7 +18324,7 @@
       <c r="B70" s="208">
         <v>67</v>
       </c>
-      <c r="C70" s="344"/>
+      <c r="C70" s="343"/>
       <c r="D70" s="14">
         <v>5</v>
       </c>
@@ -18383,7 +18408,7 @@
       <c r="B71" s="208">
         <v>68</v>
       </c>
-      <c r="C71" s="344"/>
+      <c r="C71" s="343"/>
       <c r="D71" s="14">
         <v>6</v>
       </c>
@@ -18467,7 +18492,7 @@
       <c r="B72" s="208">
         <v>69</v>
       </c>
-      <c r="C72" s="344"/>
+      <c r="C72" s="343"/>
       <c r="D72" s="14">
         <v>7</v>
       </c>
@@ -18551,7 +18576,7 @@
       <c r="B73" s="208">
         <v>70</v>
       </c>
-      <c r="C73" s="344"/>
+      <c r="C73" s="343"/>
       <c r="D73" s="14">
         <v>8</v>
       </c>
@@ -18635,7 +18660,7 @@
       <c r="B74" s="208">
         <v>71</v>
       </c>
-      <c r="C74" s="344"/>
+      <c r="C74" s="343"/>
       <c r="D74" s="14">
         <v>9</v>
       </c>
@@ -18719,7 +18744,7 @@
       <c r="B75" s="208">
         <v>72</v>
       </c>
-      <c r="C75" s="344"/>
+      <c r="C75" s="343"/>
       <c r="D75" s="14">
         <v>10</v>
       </c>
@@ -18803,7 +18828,7 @@
       <c r="B76" s="208">
         <v>73</v>
       </c>
-      <c r="C76" s="344"/>
+      <c r="C76" s="343"/>
       <c r="D76" s="14">
         <v>11</v>
       </c>
@@ -18887,7 +18912,7 @@
       <c r="B77" s="208">
         <v>74</v>
       </c>
-      <c r="C77" s="344"/>
+      <c r="C77" s="343"/>
       <c r="D77" s="14">
         <v>12</v>
       </c>
@@ -18971,7 +18996,7 @@
       <c r="B78" s="208">
         <v>75</v>
       </c>
-      <c r="C78" s="344"/>
+      <c r="C78" s="343"/>
       <c r="D78" s="14">
         <v>13</v>
       </c>
@@ -19055,7 +19080,7 @@
       <c r="B79" s="209">
         <v>76</v>
       </c>
-      <c r="C79" s="344"/>
+      <c r="C79" s="343"/>
       <c r="D79" s="14">
         <v>14</v>
       </c>
@@ -19139,7 +19164,7 @@
       <c r="B80" s="207">
         <v>77</v>
       </c>
-      <c r="C80" s="344">
+      <c r="C80" s="343">
         <v>6</v>
       </c>
       <c r="D80" s="14">
@@ -19225,7 +19250,7 @@
       <c r="B81" s="208">
         <v>78</v>
       </c>
-      <c r="C81" s="344"/>
+      <c r="C81" s="343"/>
       <c r="D81" s="14">
         <v>2</v>
       </c>
@@ -19309,7 +19334,7 @@
       <c r="B82" s="208">
         <v>79</v>
       </c>
-      <c r="C82" s="344"/>
+      <c r="C82" s="343"/>
       <c r="D82" s="14">
         <v>3</v>
       </c>
@@ -19393,7 +19418,7 @@
       <c r="B83" s="208">
         <v>80</v>
       </c>
-      <c r="C83" s="344"/>
+      <c r="C83" s="343"/>
       <c r="D83" s="14">
         <v>4</v>
       </c>
@@ -19477,7 +19502,7 @@
       <c r="B84" s="208">
         <v>81</v>
       </c>
-      <c r="C84" s="344"/>
+      <c r="C84" s="343"/>
       <c r="D84" s="14">
         <v>5</v>
       </c>
@@ -19561,7 +19586,7 @@
       <c r="B85" s="208">
         <v>82</v>
       </c>
-      <c r="C85" s="344"/>
+      <c r="C85" s="343"/>
       <c r="D85" s="14">
         <v>6</v>
       </c>
@@ -19645,7 +19670,7 @@
       <c r="B86" s="208">
         <v>83</v>
       </c>
-      <c r="C86" s="344"/>
+      <c r="C86" s="343"/>
       <c r="D86" s="14">
         <v>7</v>
       </c>
@@ -19729,7 +19754,7 @@
       <c r="B87" s="208">
         <v>84</v>
       </c>
-      <c r="C87" s="344"/>
+      <c r="C87" s="343"/>
       <c r="D87" s="14">
         <v>8</v>
       </c>
@@ -19813,7 +19838,7 @@
       <c r="B88" s="208">
         <v>85</v>
       </c>
-      <c r="C88" s="344"/>
+      <c r="C88" s="343"/>
       <c r="D88" s="14">
         <v>9</v>
       </c>
@@ -19897,7 +19922,7 @@
       <c r="B89" s="208">
         <v>86</v>
       </c>
-      <c r="C89" s="344"/>
+      <c r="C89" s="343"/>
       <c r="D89" s="14">
         <v>10</v>
       </c>
@@ -19981,7 +20006,7 @@
       <c r="B90" s="208">
         <v>87</v>
       </c>
-      <c r="C90" s="344"/>
+      <c r="C90" s="343"/>
       <c r="D90" s="14">
         <v>11</v>
       </c>
@@ -20065,7 +20090,7 @@
       <c r="B91" s="208">
         <v>88</v>
       </c>
-      <c r="C91" s="344"/>
+      <c r="C91" s="343"/>
       <c r="D91" s="14">
         <v>12</v>
       </c>
@@ -20149,7 +20174,7 @@
       <c r="B92" s="208">
         <v>89</v>
       </c>
-      <c r="C92" s="344"/>
+      <c r="C92" s="343"/>
       <c r="D92" s="14">
         <v>13</v>
       </c>
@@ -20233,7 +20258,7 @@
       <c r="B93" s="208">
         <v>90</v>
       </c>
-      <c r="C93" s="344"/>
+      <c r="C93" s="343"/>
       <c r="D93" s="14">
         <v>14</v>
       </c>
@@ -20317,7 +20342,7 @@
       <c r="B94" s="208">
         <v>91</v>
       </c>
-      <c r="C94" s="344"/>
+      <c r="C94" s="343"/>
       <c r="D94" s="14">
         <v>15</v>
       </c>
@@ -20401,7 +20426,7 @@
       <c r="B95" s="208">
         <v>92</v>
       </c>
-      <c r="C95" s="344"/>
+      <c r="C95" s="343"/>
       <c r="D95" s="14">
         <v>16</v>
       </c>
@@ -20485,7 +20510,7 @@
       <c r="B96" s="208">
         <v>93</v>
       </c>
-      <c r="C96" s="344"/>
+      <c r="C96" s="343"/>
       <c r="D96" s="14">
         <v>17</v>
       </c>
@@ -20569,7 +20594,7 @@
       <c r="B97" s="208">
         <v>94</v>
       </c>
-      <c r="C97" s="344"/>
+      <c r="C97" s="343"/>
       <c r="D97" s="14">
         <v>18</v>
       </c>
@@ -20653,7 +20678,7 @@
       <c r="B98" s="208">
         <v>95</v>
       </c>
-      <c r="C98" s="344"/>
+      <c r="C98" s="343"/>
       <c r="D98" s="14">
         <v>19</v>
       </c>
@@ -20737,7 +20762,7 @@
       <c r="B99" s="208">
         <v>96</v>
       </c>
-      <c r="C99" s="344"/>
+      <c r="C99" s="343"/>
       <c r="D99" s="14">
         <v>20</v>
       </c>
@@ -20821,7 +20846,7 @@
       <c r="B100" s="208">
         <v>97</v>
       </c>
-      <c r="C100" s="344"/>
+      <c r="C100" s="343"/>
       <c r="D100" s="14">
         <v>21</v>
       </c>
@@ -20905,7 +20930,7 @@
       <c r="B101" s="209">
         <v>98</v>
       </c>
-      <c r="C101" s="344"/>
+      <c r="C101" s="343"/>
       <c r="D101" s="14">
         <v>22</v>
       </c>
@@ -20989,7 +21014,7 @@
       <c r="B102" s="207">
         <v>99</v>
       </c>
-      <c r="C102" s="344">
+      <c r="C102" s="343">
         <v>7</v>
       </c>
       <c r="D102" s="14">
@@ -21075,7 +21100,7 @@
       <c r="B103" s="208">
         <v>100</v>
       </c>
-      <c r="C103" s="344"/>
+      <c r="C103" s="343"/>
       <c r="D103" s="14">
         <v>2</v>
       </c>
@@ -21159,7 +21184,7 @@
       <c r="B104" s="208">
         <v>101</v>
       </c>
-      <c r="C104" s="344"/>
+      <c r="C104" s="343"/>
       <c r="D104" s="14">
         <v>3</v>
       </c>
@@ -21243,7 +21268,7 @@
       <c r="B105" s="208">
         <v>102</v>
       </c>
-      <c r="C105" s="344"/>
+      <c r="C105" s="343"/>
       <c r="D105" s="14">
         <v>4</v>
       </c>
@@ -21327,7 +21352,7 @@
       <c r="B106" s="208">
         <v>103</v>
       </c>
-      <c r="C106" s="344"/>
+      <c r="C106" s="343"/>
       <c r="D106" s="14">
         <v>5</v>
       </c>
@@ -21411,7 +21436,7 @@
       <c r="B107" s="208">
         <v>104</v>
       </c>
-      <c r="C107" s="344"/>
+      <c r="C107" s="343"/>
       <c r="D107" s="14">
         <v>6</v>
       </c>
@@ -21495,7 +21520,7 @@
       <c r="B108" s="208">
         <v>105</v>
       </c>
-      <c r="C108" s="344"/>
+      <c r="C108" s="343"/>
       <c r="D108" s="14">
         <v>7</v>
       </c>
@@ -21579,7 +21604,7 @@
       <c r="B109" s="208">
         <v>106</v>
       </c>
-      <c r="C109" s="344"/>
+      <c r="C109" s="343"/>
       <c r="D109" s="14">
         <v>8</v>
       </c>
@@ -21663,7 +21688,7 @@
       <c r="B110" s="208">
         <v>107</v>
       </c>
-      <c r="C110" s="344"/>
+      <c r="C110" s="343"/>
       <c r="D110" s="14">
         <v>9</v>
       </c>
@@ -21747,7 +21772,7 @@
       <c r="B111" s="208">
         <v>108</v>
       </c>
-      <c r="C111" s="344"/>
+      <c r="C111" s="343"/>
       <c r="D111" s="14">
         <v>10</v>
       </c>
@@ -21831,7 +21856,7 @@
       <c r="B112" s="208">
         <v>109</v>
       </c>
-      <c r="C112" s="344"/>
+      <c r="C112" s="343"/>
       <c r="D112" s="14">
         <v>11</v>
       </c>
@@ -21915,7 +21940,7 @@
       <c r="B113" s="208">
         <v>110</v>
       </c>
-      <c r="C113" s="344"/>
+      <c r="C113" s="343"/>
       <c r="D113" s="14">
         <v>12</v>
       </c>
@@ -21999,7 +22024,7 @@
       <c r="B114" s="208">
         <v>111</v>
       </c>
-      <c r="C114" s="344"/>
+      <c r="C114" s="343"/>
       <c r="D114" s="14">
         <v>13</v>
       </c>
@@ -22083,7 +22108,7 @@
       <c r="B115" s="208">
         <v>112</v>
       </c>
-      <c r="C115" s="344"/>
+      <c r="C115" s="343"/>
       <c r="D115" s="14">
         <v>14</v>
       </c>
@@ -22167,7 +22192,7 @@
       <c r="B116" s="208">
         <v>113</v>
       </c>
-      <c r="C116" s="344"/>
+      <c r="C116" s="343"/>
       <c r="D116" s="14">
         <v>15</v>
       </c>
@@ -22251,7 +22276,7 @@
       <c r="B117" s="208">
         <v>114</v>
       </c>
-      <c r="C117" s="344"/>
+      <c r="C117" s="343"/>
       <c r="D117" s="14">
         <v>16</v>
       </c>
@@ -22335,7 +22360,7 @@
       <c r="B118" s="208">
         <v>115</v>
       </c>
-      <c r="C118" s="344"/>
+      <c r="C118" s="343"/>
       <c r="D118" s="14">
         <v>17</v>
       </c>
@@ -22419,7 +22444,7 @@
       <c r="B119" s="208">
         <v>116</v>
       </c>
-      <c r="C119" s="344"/>
+      <c r="C119" s="343"/>
       <c r="D119" s="14">
         <v>18</v>
       </c>
@@ -22503,7 +22528,7 @@
       <c r="B120" s="208">
         <v>117</v>
       </c>
-      <c r="C120" s="344"/>
+      <c r="C120" s="343"/>
       <c r="D120" s="14">
         <v>19</v>
       </c>
@@ -22587,7 +22612,7 @@
       <c r="B121" s="208">
         <v>118</v>
       </c>
-      <c r="C121" s="344"/>
+      <c r="C121" s="343"/>
       <c r="D121" s="14">
         <v>20</v>
       </c>
@@ -22671,7 +22696,7 @@
       <c r="B122" s="208">
         <v>119</v>
       </c>
-      <c r="C122" s="344"/>
+      <c r="C122" s="343"/>
       <c r="D122" s="14">
         <v>21</v>
       </c>
@@ -22755,7 +22780,7 @@
       <c r="B123" s="208">
         <v>120</v>
       </c>
-      <c r="C123" s="344"/>
+      <c r="C123" s="343"/>
       <c r="D123" s="14">
         <v>22</v>
       </c>
@@ -22839,7 +22864,7 @@
       <c r="B124" s="208">
         <v>121</v>
       </c>
-      <c r="C124" s="344"/>
+      <c r="C124" s="343"/>
       <c r="D124" s="14">
         <v>23</v>
       </c>
@@ -22923,7 +22948,7 @@
       <c r="B125" s="209">
         <v>122</v>
       </c>
-      <c r="C125" s="344"/>
+      <c r="C125" s="343"/>
       <c r="D125" s="14">
         <v>24</v>
       </c>
@@ -23007,7 +23032,7 @@
       <c r="B126" s="207">
         <v>123</v>
       </c>
-      <c r="C126" s="344">
+      <c r="C126" s="343">
         <v>8</v>
       </c>
       <c r="D126" s="14">
@@ -23093,7 +23118,7 @@
       <c r="B127" s="208">
         <v>124</v>
       </c>
-      <c r="C127" s="344"/>
+      <c r="C127" s="343"/>
       <c r="D127" s="14">
         <v>2</v>
       </c>
@@ -23177,7 +23202,7 @@
       <c r="B128" s="208">
         <v>125</v>
       </c>
-      <c r="C128" s="344"/>
+      <c r="C128" s="343"/>
       <c r="D128" s="14">
         <v>3</v>
       </c>
@@ -23261,7 +23286,7 @@
       <c r="B129" s="208">
         <v>126</v>
       </c>
-      <c r="C129" s="344"/>
+      <c r="C129" s="343"/>
       <c r="D129" s="14">
         <v>4</v>
       </c>
@@ -23345,7 +23370,7 @@
       <c r="B130" s="208">
         <v>127</v>
       </c>
-      <c r="C130" s="344"/>
+      <c r="C130" s="343"/>
       <c r="D130" s="14">
         <v>5</v>
       </c>
@@ -23429,7 +23454,7 @@
       <c r="B131" s="208">
         <v>128</v>
       </c>
-      <c r="C131" s="344"/>
+      <c r="C131" s="343"/>
       <c r="D131" s="14">
         <v>6</v>
       </c>
@@ -23513,7 +23538,7 @@
       <c r="B132" s="208">
         <v>129</v>
       </c>
-      <c r="C132" s="344"/>
+      <c r="C132" s="343"/>
       <c r="D132" s="14">
         <v>7</v>
       </c>
@@ -23597,7 +23622,7 @@
       <c r="B133" s="208">
         <v>130</v>
       </c>
-      <c r="C133" s="344"/>
+      <c r="C133" s="343"/>
       <c r="D133" s="14">
         <v>8</v>
       </c>
@@ -23681,7 +23706,7 @@
       <c r="B134" s="208">
         <v>131</v>
       </c>
-      <c r="C134" s="344"/>
+      <c r="C134" s="343"/>
       <c r="D134" s="14">
         <v>9</v>
       </c>
@@ -23765,7 +23790,7 @@
       <c r="B135" s="208">
         <v>132</v>
       </c>
-      <c r="C135" s="344"/>
+      <c r="C135" s="343"/>
       <c r="D135" s="14">
         <v>10</v>
       </c>
@@ -23849,7 +23874,7 @@
       <c r="B136" s="208">
         <v>133</v>
       </c>
-      <c r="C136" s="344"/>
+      <c r="C136" s="343"/>
       <c r="D136" s="14">
         <v>11</v>
       </c>
@@ -23933,7 +23958,7 @@
       <c r="B137" s="208">
         <v>134</v>
       </c>
-      <c r="C137" s="344"/>
+      <c r="C137" s="343"/>
       <c r="D137" s="14">
         <v>12</v>
       </c>
@@ -24017,7 +24042,7 @@
       <c r="B138" s="208">
         <v>135</v>
       </c>
-      <c r="C138" s="344"/>
+      <c r="C138" s="343"/>
       <c r="D138" s="14">
         <v>13</v>
       </c>
@@ -24101,7 +24126,7 @@
       <c r="B139" s="208">
         <v>136</v>
       </c>
-      <c r="C139" s="344"/>
+      <c r="C139" s="343"/>
       <c r="D139" s="14">
         <v>14</v>
       </c>
@@ -24185,7 +24210,7 @@
       <c r="B140" s="208">
         <v>137</v>
       </c>
-      <c r="C140" s="344"/>
+      <c r="C140" s="343"/>
       <c r="D140" s="14">
         <v>15</v>
       </c>
@@ -24269,7 +24294,7 @@
       <c r="B141" s="208">
         <v>138</v>
       </c>
-      <c r="C141" s="344"/>
+      <c r="C141" s="343"/>
       <c r="D141" s="14">
         <v>16</v>
       </c>
@@ -24353,7 +24378,7 @@
       <c r="B142" s="208">
         <v>139</v>
       </c>
-      <c r="C142" s="344"/>
+      <c r="C142" s="343"/>
       <c r="D142" s="14">
         <v>17</v>
       </c>
@@ -24437,7 +24462,7 @@
       <c r="B143" s="208">
         <v>140</v>
       </c>
-      <c r="C143" s="344"/>
+      <c r="C143" s="343"/>
       <c r="D143" s="14">
         <v>18</v>
       </c>
@@ -24521,7 +24546,7 @@
       <c r="B144" s="208">
         <v>141</v>
       </c>
-      <c r="C144" s="344"/>
+      <c r="C144" s="343"/>
       <c r="D144" s="14">
         <v>19</v>
       </c>
@@ -24605,7 +24630,7 @@
       <c r="B145" s="208">
         <v>142</v>
       </c>
-      <c r="C145" s="344"/>
+      <c r="C145" s="343"/>
       <c r="D145" s="14">
         <v>20</v>
       </c>
@@ -24689,7 +24714,7 @@
     </row>
     <row r="146" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146" s="208"/>
-      <c r="C146" s="344"/>
+      <c r="C146" s="343"/>
       <c r="D146" s="14">
         <v>21</v>
       </c>
@@ -24775,7 +24800,7 @@
       <c r="B147" s="208">
         <v>143</v>
       </c>
-      <c r="C147" s="344"/>
+      <c r="C147" s="343"/>
       <c r="D147" s="14">
         <v>22</v>
       </c>
@@ -24861,7 +24886,7 @@
       <c r="B148" s="208">
         <v>144</v>
       </c>
-      <c r="C148" s="344"/>
+      <c r="C148" s="343"/>
       <c r="D148" s="14">
         <v>23</v>
       </c>
@@ -24947,7 +24972,7 @@
       <c r="B149" s="208">
         <v>145</v>
       </c>
-      <c r="C149" s="344"/>
+      <c r="C149" s="343"/>
       <c r="D149" s="14">
         <v>24</v>
       </c>
@@ -25033,7 +25058,7 @@
       <c r="B150" s="212">
         <v>146</v>
       </c>
-      <c r="C150" s="344"/>
+      <c r="C150" s="343"/>
       <c r="D150" s="14">
         <v>25</v>
       </c>
@@ -25119,7 +25144,7 @@
       <c r="B151" s="207">
         <v>147</v>
       </c>
-      <c r="C151" s="344">
+      <c r="C151" s="343">
         <v>9</v>
       </c>
       <c r="D151" s="14">
@@ -25207,7 +25232,7 @@
       <c r="B152" s="208">
         <v>148</v>
       </c>
-      <c r="C152" s="344"/>
+      <c r="C152" s="343"/>
       <c r="D152" s="14">
         <v>2</v>
       </c>
@@ -25293,7 +25318,7 @@
       <c r="B153" s="208">
         <v>149</v>
       </c>
-      <c r="C153" s="344"/>
+      <c r="C153" s="343"/>
       <c r="D153" s="14">
         <v>3</v>
       </c>
@@ -25379,7 +25404,7 @@
       <c r="B154" s="208">
         <v>150</v>
       </c>
-      <c r="C154" s="344"/>
+      <c r="C154" s="343"/>
       <c r="D154" s="14">
         <v>4</v>
       </c>
@@ -25465,7 +25490,7 @@
       <c r="B155" s="208">
         <v>151</v>
       </c>
-      <c r="C155" s="344"/>
+      <c r="C155" s="343"/>
       <c r="D155" s="14">
         <v>5</v>
       </c>
@@ -25551,7 +25576,7 @@
       <c r="B156" s="208">
         <v>152</v>
       </c>
-      <c r="C156" s="344"/>
+      <c r="C156" s="343"/>
       <c r="D156" s="14">
         <v>6</v>
       </c>
@@ -25637,7 +25662,7 @@
       <c r="B157" s="208">
         <v>153</v>
       </c>
-      <c r="C157" s="344"/>
+      <c r="C157" s="343"/>
       <c r="D157" s="14">
         <v>7</v>
       </c>
@@ -25721,7 +25746,7 @@
     </row>
     <row r="158" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158" s="208"/>
-      <c r="C158" s="344"/>
+      <c r="C158" s="343"/>
       <c r="D158" s="14">
         <v>8</v>
       </c>
@@ -25805,7 +25830,7 @@
       <c r="B159" s="208">
         <v>154</v>
       </c>
-      <c r="C159" s="344"/>
+      <c r="C159" s="343"/>
       <c r="D159" s="14">
         <v>9</v>
       </c>
@@ -25891,7 +25916,7 @@
       <c r="B160" s="208">
         <v>155</v>
       </c>
-      <c r="C160" s="344"/>
+      <c r="C160" s="343"/>
       <c r="D160" s="14">
         <v>10</v>
       </c>
@@ -25977,7 +26002,7 @@
       <c r="B161" s="208">
         <v>156</v>
       </c>
-      <c r="C161" s="344"/>
+      <c r="C161" s="343"/>
       <c r="D161" s="14">
         <v>11</v>
       </c>
@@ -26063,7 +26088,7 @@
       <c r="B162" s="208">
         <v>157</v>
       </c>
-      <c r="C162" s="344"/>
+      <c r="C162" s="343"/>
       <c r="D162" s="14">
         <v>12</v>
       </c>
@@ -26147,7 +26172,7 @@
       <c r="B163" s="208">
         <v>158</v>
       </c>
-      <c r="C163" s="344"/>
+      <c r="C163" s="343"/>
       <c r="D163" s="14">
         <v>13</v>
       </c>
@@ -26231,7 +26256,7 @@
       <c r="B164" s="208">
         <v>159</v>
       </c>
-      <c r="C164" s="344"/>
+      <c r="C164" s="343"/>
       <c r="D164" s="14">
         <v>14</v>
       </c>
@@ -26315,7 +26340,7 @@
       <c r="B165" s="208">
         <v>160</v>
       </c>
-      <c r="C165" s="344"/>
+      <c r="C165" s="343"/>
       <c r="D165" s="14">
         <v>15</v>
       </c>
@@ -26399,7 +26424,7 @@
       <c r="B166" s="208">
         <v>161</v>
       </c>
-      <c r="C166" s="344"/>
+      <c r="C166" s="343"/>
       <c r="D166" s="14">
         <v>16</v>
       </c>
@@ -26483,7 +26508,7 @@
       <c r="B167" s="208">
         <v>162</v>
       </c>
-      <c r="C167" s="344"/>
+      <c r="C167" s="343"/>
       <c r="D167" s="14">
         <v>17</v>
       </c>
@@ -26567,7 +26592,7 @@
       <c r="B168" s="208">
         <v>163</v>
       </c>
-      <c r="C168" s="344"/>
+      <c r="C168" s="343"/>
       <c r="D168" s="14">
         <v>18</v>
       </c>
@@ -26651,7 +26676,7 @@
       <c r="B169" s="208">
         <v>164</v>
       </c>
-      <c r="C169" s="344"/>
+      <c r="C169" s="343"/>
       <c r="D169" s="14">
         <v>19</v>
       </c>
@@ -26735,7 +26760,7 @@
       <c r="B170" s="208">
         <v>165</v>
       </c>
-      <c r="C170" s="344"/>
+      <c r="C170" s="343"/>
       <c r="D170" s="14">
         <v>20</v>
       </c>
@@ -26819,7 +26844,7 @@
       <c r="B171" s="208">
         <v>166</v>
       </c>
-      <c r="C171" s="344"/>
+      <c r="C171" s="343"/>
       <c r="D171" s="14">
         <v>21</v>
       </c>
@@ -26903,7 +26928,7 @@
       <c r="B172" s="208">
         <v>167</v>
       </c>
-      <c r="C172" s="344"/>
+      <c r="C172" s="343"/>
       <c r="D172" s="14">
         <v>22</v>
       </c>
@@ -26987,7 +27012,7 @@
       <c r="B173" s="208">
         <v>168</v>
       </c>
-      <c r="C173" s="344"/>
+      <c r="C173" s="343"/>
       <c r="D173" s="14">
         <v>23</v>
       </c>
@@ -27071,7 +27096,7 @@
       <c r="B174" s="210">
         <v>169</v>
       </c>
-      <c r="C174" s="344"/>
+      <c r="C174" s="343"/>
       <c r="D174" s="14">
         <v>24</v>
       </c>
@@ -27580,6 +27605,27 @@
     <sortCondition ref="E160:E183"/>
   </sortState>
   <mergeCells count="37">
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="C80:C101"/>
     <mergeCell ref="C102:C125"/>
@@ -27596,27 +27642,6 @@
     <mergeCell ref="C66:C79"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="R39:R41"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R26:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27674,52 +27699,52 @@
       <c r="B2" s="75">
         <v>1</v>
       </c>
-      <c r="C2" s="381" t="s">
+      <c r="C2" s="345" t="s">
         <v>463</v>
       </c>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="381"/>
-      <c r="Q2" s="381"/>
-      <c r="R2" s="381"/>
-      <c r="S2" s="381"/>
-      <c r="T2" s="381"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
+      <c r="R2" s="345"/>
+      <c r="S2" s="345"/>
+      <c r="T2" s="345"/>
     </row>
     <row r="3" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="75"/>
       <c r="B3" s="75">
         <v>2</v>
       </c>
-      <c r="C3" s="381" t="s">
+      <c r="C3" s="345" t="s">
         <v>464</v>
       </c>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="381"/>
-      <c r="O3" s="381"/>
-      <c r="P3" s="381"/>
-      <c r="Q3" s="381"/>
-      <c r="R3" s="381"/>
-      <c r="S3" s="381"/>
-      <c r="T3" s="381"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="345"/>
+      <c r="R3" s="345"/>
+      <c r="S3" s="345"/>
+      <c r="T3" s="345"/>
     </row>
     <row r="4" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="75"/>
@@ -27727,25 +27752,25 @@
       <c r="C4" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="D4" s="381" t="s">
+      <c r="D4" s="345" t="s">
         <v>466</v>
       </c>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
-      <c r="G4" s="381"/>
-      <c r="H4" s="381"/>
-      <c r="I4" s="381"/>
-      <c r="J4" s="381"/>
-      <c r="K4" s="381"/>
-      <c r="L4" s="381"/>
-      <c r="M4" s="381"/>
-      <c r="N4" s="381"/>
-      <c r="O4" s="381"/>
-      <c r="P4" s="381"/>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="345"/>
+      <c r="G4" s="345"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="345"/>
+      <c r="P4" s="345"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="345"/>
+      <c r="S4" s="345"/>
+      <c r="T4" s="345"/>
     </row>
     <row r="5" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
@@ -27753,51 +27778,51 @@
       <c r="C5" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="D5" s="381" t="s">
+      <c r="D5" s="345" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="381"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="381"/>
-      <c r="J5" s="381"/>
-      <c r="K5" s="381"/>
-      <c r="L5" s="381"/>
-      <c r="M5" s="381"/>
-      <c r="N5" s="381"/>
-      <c r="O5" s="381"/>
-      <c r="P5" s="381"/>
-      <c r="Q5" s="381"/>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="381"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="345"/>
+      <c r="Q5" s="345"/>
+      <c r="R5" s="345"/>
+      <c r="S5" s="345"/>
+      <c r="T5" s="345"/>
     </row>
     <row r="6" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
       <c r="B6" s="75">
         <v>3</v>
       </c>
-      <c r="C6" s="381" t="s">
+      <c r="C6" s="345" t="s">
         <v>603</v>
       </c>
-      <c r="D6" s="381"/>
-      <c r="E6" s="381"/>
-      <c r="F6" s="381"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="381"/>
-      <c r="I6" s="381"/>
-      <c r="J6" s="381"/>
-      <c r="K6" s="381"/>
-      <c r="L6" s="381"/>
-      <c r="M6" s="381"/>
-      <c r="N6" s="381"/>
-      <c r="O6" s="381"/>
-      <c r="P6" s="381"/>
-      <c r="Q6" s="381"/>
-      <c r="R6" s="381"/>
-      <c r="S6" s="381"/>
-      <c r="T6" s="381"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="345"/>
+      <c r="L6" s="345"/>
+      <c r="M6" s="345"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="345"/>
+      <c r="P6" s="345"/>
+      <c r="Q6" s="345"/>
+      <c r="R6" s="345"/>
+      <c r="S6" s="345"/>
+      <c r="T6" s="345"/>
     </row>
     <row r="7" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="75"/>
@@ -27805,25 +27830,25 @@
       <c r="C7" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="381" t="s">
+      <c r="D7" s="345" t="s">
         <v>469</v>
       </c>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="381"/>
-      <c r="I7" s="381"/>
-      <c r="J7" s="381"/>
-      <c r="K7" s="381"/>
-      <c r="L7" s="381"/>
-      <c r="M7" s="381"/>
-      <c r="N7" s="381"/>
-      <c r="O7" s="381"/>
-      <c r="P7" s="381"/>
-      <c r="Q7" s="381"/>
-      <c r="R7" s="381"/>
-      <c r="S7" s="381"/>
-      <c r="T7" s="381"/>
+      <c r="E7" s="345"/>
+      <c r="F7" s="345"/>
+      <c r="G7" s="345"/>
+      <c r="H7" s="345"/>
+      <c r="I7" s="345"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="345"/>
+      <c r="N7" s="345"/>
+      <c r="O7" s="345"/>
+      <c r="P7" s="345"/>
+      <c r="Q7" s="345"/>
+      <c r="R7" s="345"/>
+      <c r="S7" s="345"/>
+      <c r="T7" s="345"/>
     </row>
     <row r="8" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
@@ -27831,77 +27856,77 @@
       <c r="C8" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="D8" s="381" t="s">
+      <c r="D8" s="345" t="s">
         <v>470</v>
       </c>
-      <c r="E8" s="381"/>
-      <c r="F8" s="381"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
-      <c r="Q8" s="381"/>
-      <c r="R8" s="381"/>
-      <c r="S8" s="381"/>
-      <c r="T8" s="381"/>
+      <c r="E8" s="345"/>
+      <c r="F8" s="345"/>
+      <c r="G8" s="345"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="345"/>
+      <c r="Q8" s="345"/>
+      <c r="R8" s="345"/>
+      <c r="S8" s="345"/>
+      <c r="T8" s="345"/>
     </row>
     <row r="9" spans="1:26" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="75">
         <v>4</v>
       </c>
-      <c r="C9" s="381" t="s">
+      <c r="C9" s="345" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="381"/>
-      <c r="E9" s="381"/>
-      <c r="F9" s="381"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="381"/>
-      <c r="I9" s="381"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="381"/>
-      <c r="M9" s="381"/>
-      <c r="N9" s="381"/>
-      <c r="O9" s="381"/>
-      <c r="P9" s="381"/>
-      <c r="Q9" s="381"/>
-      <c r="R9" s="381"/>
-      <c r="S9" s="381"/>
-      <c r="T9" s="381"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="345"/>
+      <c r="G9" s="345"/>
+      <c r="H9" s="345"/>
+      <c r="I9" s="345"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="345"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="345"/>
+      <c r="R9" s="345"/>
+      <c r="S9" s="345"/>
+      <c r="T9" s="345"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="370" t="s">
+      <c r="A11" s="362" t="s">
         <v>472</v>
       </c>
-      <c r="B11" s="371"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="371"/>
-      <c r="F11" s="371"/>
-      <c r="G11" s="371"/>
-      <c r="H11" s="371"/>
-      <c r="I11" s="371"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="371"/>
-      <c r="N11" s="372"/>
-      <c r="P11" s="356" t="s">
+      <c r="B11" s="363"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="363"/>
+      <c r="E11" s="363"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="363"/>
+      <c r="H11" s="363"/>
+      <c r="I11" s="363"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="363"/>
+      <c r="M11" s="363"/>
+      <c r="N11" s="364"/>
+      <c r="P11" s="365" t="s">
         <v>473</v>
       </c>
-      <c r="Q11" s="356"/>
-      <c r="R11" s="356"/>
-      <c r="S11" s="356"/>
-      <c r="T11" s="356"/>
+      <c r="Q11" s="365"/>
+      <c r="R11" s="365"/>
+      <c r="S11" s="365"/>
+      <c r="T11" s="365"/>
     </row>
     <row r="12" spans="1:26" s="48" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="267" t="s">
@@ -27956,7 +27981,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="373">
+      <c r="A13" s="346">
         <v>1</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -27982,28 +28007,28 @@
         <f>IF(F13&lt;=0,"",B13)</f>
         <v/>
       </c>
-      <c r="H13" s="352">
+      <c r="H13" s="357">
         <f>MAX(F13:F14)</f>
         <v>3</v>
       </c>
-      <c r="I13" s="352">
+      <c r="I13" s="357">
         <f>MIN(F13:F14)</f>
         <v>-1</v>
       </c>
-      <c r="J13" s="352" t="str">
+      <c r="J13" s="357" t="str">
         <f ca="1">IF(K13=G13,G14,G13)</f>
         <v/>
       </c>
-      <c r="K13" s="352" t="str">
+      <c r="K13" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H13,F13:F14,0)+(ROW()-1),2))</f>
         <v>AIF191</v>
       </c>
-      <c r="L13" s="365"/>
-      <c r="M13" s="354" t="str">
+      <c r="L13" s="348"/>
+      <c r="M13" s="359" t="str">
         <f ca="1">IF(L13="",K13,L13)</f>
         <v>AIF191</v>
       </c>
-      <c r="N13" s="345" t="str">
+      <c r="N13" s="350" t="str">
         <f ca="1">IF(M13=K13,J13,K13)</f>
         <v/>
       </c>
@@ -28028,7 +28053,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="374"/>
+      <c r="A14" s="347"/>
       <c r="B14" s="54" t="s">
         <v>256</v>
       </c>
@@ -28052,13 +28077,13 @@
         <f t="shared" ref="G14:G32" si="0">IF(F14&lt;=0,"",B14)</f>
         <v>AIF191</v>
       </c>
-      <c r="H14" s="353"/>
-      <c r="I14" s="353"/>
-      <c r="J14" s="353"/>
-      <c r="K14" s="353"/>
-      <c r="L14" s="366"/>
-      <c r="M14" s="355"/>
-      <c r="N14" s="346"/>
+      <c r="H14" s="358"/>
+      <c r="I14" s="358"/>
+      <c r="J14" s="358"/>
+      <c r="K14" s="358"/>
+      <c r="L14" s="349"/>
+      <c r="M14" s="360"/>
+      <c r="N14" s="351"/>
       <c r="O14" s="51"/>
       <c r="P14" s="254">
         <v>2</v>
@@ -28076,16 +28101,16 @@
         <f>IF(Q14&lt;&gt;"",VLOOKUP(Q14,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V14" s="356" t="s">
+      <c r="V14" s="365" t="s">
         <v>478</v>
       </c>
-      <c r="W14" s="356"/>
-      <c r="X14" s="356"/>
-      <c r="Y14" s="356"/>
-      <c r="Z14" s="356"/>
+      <c r="W14" s="365"/>
+      <c r="X14" s="365"/>
+      <c r="Y14" s="365"/>
+      <c r="Z14" s="365"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="373">
+      <c r="A15" s="346">
         <v>2</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -28111,28 +28136,28 @@
         <f t="shared" si="0"/>
         <v>AIF102</v>
       </c>
-      <c r="H15" s="352">
+      <c r="H15" s="357">
         <f>MAX(F15:F16)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="352">
+      <c r="I15" s="357">
         <f>MIN(F15:F16)</f>
         <v>-1</v>
       </c>
-      <c r="J15" s="352" t="str">
+      <c r="J15" s="357" t="str">
         <f ca="1">IF(K15=G15,G16,G15)</f>
         <v/>
       </c>
-      <c r="K15" s="352" t="str">
+      <c r="K15" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H15,F15:F16,0)+(ROW()-1),2))</f>
         <v>AIF102</v>
       </c>
-      <c r="L15" s="365"/>
-      <c r="M15" s="354" t="str">
+      <c r="L15" s="348"/>
+      <c r="M15" s="359" t="str">
         <f ca="1">IF(L15="",K15,L15)</f>
         <v>AIF102</v>
       </c>
-      <c r="N15" s="345" t="str">
+      <c r="N15" s="350" t="str">
         <f ca="1">IF(M15=K15,J15,K15)</f>
         <v/>
       </c>
@@ -28153,19 +28178,19 @@
         <f>IF(Q15&lt;&gt;"",VLOOKUP(Q15,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V15" s="289" t="s">
+      <c r="V15" s="294" t="s">
         <v>480</v>
       </c>
-      <c r="W15" s="289"/>
-      <c r="X15" s="289"/>
-      <c r="Y15" s="289"/>
+      <c r="W15" s="294"/>
+      <c r="X15" s="294"/>
+      <c r="Y15" s="294"/>
       <c r="Z15" s="57">
         <f>'Nilai Kurikulum 2013'!AA21</f>
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="374"/>
+      <c r="A16" s="347"/>
       <c r="B16" s="54" t="s">
         <v>267</v>
       </c>
@@ -28189,13 +28214,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="353"/>
-      <c r="I16" s="353"/>
-      <c r="J16" s="353"/>
-      <c r="K16" s="353"/>
-      <c r="L16" s="366"/>
-      <c r="M16" s="355"/>
-      <c r="N16" s="346"/>
+      <c r="H16" s="358"/>
+      <c r="I16" s="358"/>
+      <c r="J16" s="358"/>
+      <c r="K16" s="358"/>
+      <c r="L16" s="349"/>
+      <c r="M16" s="360"/>
+      <c r="N16" s="351"/>
       <c r="O16" s="51"/>
       <c r="P16" s="254">
         <v>4</v>
@@ -28213,19 +28238,19 @@
         <f>IF(Q16&lt;&gt;"",VLOOKUP(Q16,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V16" s="289" t="s">
+      <c r="V16" s="294" t="s">
         <v>481</v>
       </c>
-      <c r="W16" s="289"/>
-      <c r="X16" s="289"/>
-      <c r="Y16" s="289"/>
+      <c r="W16" s="294"/>
+      <c r="X16" s="294"/>
+      <c r="Y16" s="294"/>
       <c r="Z16" s="57">
         <f>'Nilai Kurikulum 2013'!AA22</f>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="373">
+      <c r="A17" s="346">
         <v>3</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -28251,28 +28276,28 @@
         <f t="shared" si="0"/>
         <v>AMS100</v>
       </c>
-      <c r="H17" s="352">
+      <c r="H17" s="357">
         <f>MAX(F17:F18)</f>
         <v>4</v>
       </c>
-      <c r="I17" s="352">
+      <c r="I17" s="357">
         <f>MIN(F17:F18)</f>
         <v>-1</v>
       </c>
-      <c r="J17" s="352" t="str">
+      <c r="J17" s="357" t="str">
         <f ca="1">IF(K17=G17,G18,G17)</f>
         <v/>
       </c>
-      <c r="K17" s="352" t="str">
+      <c r="K17" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H17,F17:F18,0)+(ROW()-1),2))</f>
         <v>AMS100</v>
       </c>
-      <c r="L17" s="365"/>
-      <c r="M17" s="354" t="str">
+      <c r="L17" s="348"/>
+      <c r="M17" s="359" t="str">
         <f ca="1">IF(L17="",K17,L17)</f>
         <v>AMS100</v>
       </c>
-      <c r="N17" s="345" t="str">
+      <c r="N17" s="350" t="str">
         <f ca="1">IF(M17=K17,J17,K17)</f>
         <v/>
       </c>
@@ -28310,7 +28335,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="374"/>
+      <c r="A18" s="347"/>
       <c r="B18" s="54" t="s">
         <v>273</v>
       </c>
@@ -28334,13 +28359,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="353"/>
-      <c r="I18" s="353"/>
-      <c r="J18" s="353"/>
-      <c r="K18" s="353"/>
-      <c r="L18" s="366"/>
-      <c r="M18" s="355"/>
-      <c r="N18" s="346"/>
+      <c r="H18" s="358"/>
+      <c r="I18" s="358"/>
+      <c r="J18" s="358"/>
+      <c r="K18" s="358"/>
+      <c r="L18" s="349"/>
+      <c r="M18" s="360"/>
+      <c r="N18" s="351"/>
       <c r="O18" s="51"/>
       <c r="P18" s="254">
         <v>6</v>
@@ -28379,7 +28404,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="377">
+      <c r="A19" s="353">
         <v>4</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -28405,28 +28430,28 @@
         <f t="shared" ref="G19:G20" si="1">IF(F19&lt;=0,"",B19)</f>
         <v/>
       </c>
-      <c r="H19" s="379">
+      <c r="H19" s="355">
         <f>MAX(F19:F20)</f>
         <v>4</v>
       </c>
-      <c r="I19" s="379">
+      <c r="I19" s="355">
         <f>MIN(F19:F20)</f>
         <v>-1</v>
       </c>
-      <c r="J19" s="379" t="str">
+      <c r="J19" s="355" t="str">
         <f ca="1">IF(K19=G19,G20,G19)</f>
         <v/>
       </c>
-      <c r="K19" s="379" t="str">
+      <c r="K19" s="355" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H19,F19:F20,0)+(ROW()-1),2))</f>
         <v>MKU004</v>
       </c>
-      <c r="L19" s="357"/>
-      <c r="M19" s="359" t="str">
+      <c r="L19" s="369"/>
+      <c r="M19" s="371" t="str">
         <f ca="1">IF(L19="",K19,L19)</f>
         <v>MKU004</v>
       </c>
-      <c r="N19" s="361" t="str">
+      <c r="N19" s="373" t="str">
         <f ca="1">IF(M19=K19,J19,K19)</f>
         <v/>
       </c>
@@ -28468,7 +28493,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="378"/>
+      <c r="A20" s="354"/>
       <c r="B20" s="60" t="s">
         <v>287</v>
       </c>
@@ -28492,13 +28517,13 @@
         <f t="shared" si="1"/>
         <v>MKU004</v>
       </c>
-      <c r="H20" s="380"/>
-      <c r="I20" s="380"/>
-      <c r="J20" s="380"/>
-      <c r="K20" s="380"/>
-      <c r="L20" s="358"/>
-      <c r="M20" s="360"/>
-      <c r="N20" s="362"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="356"/>
+      <c r="J20" s="356"/>
+      <c r="K20" s="356"/>
+      <c r="L20" s="370"/>
+      <c r="M20" s="372"/>
+      <c r="N20" s="374"/>
       <c r="O20" s="51"/>
       <c r="P20" s="254">
         <v>8</v>
@@ -28519,19 +28544,19 @@
       <c r="V20" s="271" t="s">
         <v>483</v>
       </c>
-      <c r="W20" s="350">
+      <c r="W20" s="375">
         <f>SUM(W19:Z19)</f>
         <v>146</v>
       </c>
-      <c r="X20" s="350"/>
-      <c r="Y20" s="363">
+      <c r="X20" s="375"/>
+      <c r="Y20" s="376">
         <f>ROUND(((W19*4)+(X19*3)+(Y19*2)+Z19)/W20,2)</f>
         <v>3.16</v>
       </c>
-      <c r="Z20" s="364"/>
+      <c r="Z20" s="377"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="373">
+      <c r="A21" s="346">
         <v>5</v>
       </c>
       <c r="B21" s="49" t="s">
@@ -28557,28 +28582,28 @@
         <f t="shared" si="0"/>
         <v>AIF202</v>
       </c>
-      <c r="H21" s="352">
+      <c r="H21" s="357">
         <f>MAX(F21:F22)</f>
         <v>3</v>
       </c>
-      <c r="I21" s="352">
+      <c r="I21" s="357">
         <f>MIN(F21:F22)</f>
         <v>-1</v>
       </c>
-      <c r="J21" s="352" t="str">
+      <c r="J21" s="357" t="str">
         <f ca="1">IF(K21=G21,G22,G21)</f>
         <v/>
       </c>
-      <c r="K21" s="352" t="str">
+      <c r="K21" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H21,F21:F22,0)+(ROW()-1),2))</f>
         <v>AIF202</v>
       </c>
-      <c r="L21" s="365"/>
-      <c r="M21" s="354" t="str">
+      <c r="L21" s="348"/>
+      <c r="M21" s="359" t="str">
         <f ca="1">IF(L21="",K21,L21)</f>
         <v>AIF202</v>
       </c>
-      <c r="N21" s="345" t="str">
+      <c r="N21" s="350" t="str">
         <f ca="1">IF(M21=K21,J21,K21)</f>
         <v/>
       </c>
@@ -28601,7 +28626,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="374"/>
+      <c r="A22" s="347"/>
       <c r="B22" s="54" t="s">
         <v>292</v>
       </c>
@@ -28625,13 +28650,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="353"/>
-      <c r="I22" s="353"/>
-      <c r="J22" s="353"/>
-      <c r="K22" s="353"/>
-      <c r="L22" s="366"/>
-      <c r="M22" s="355"/>
-      <c r="N22" s="346"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="358"/>
+      <c r="J22" s="358"/>
+      <c r="K22" s="358"/>
+      <c r="L22" s="349"/>
+      <c r="M22" s="360"/>
+      <c r="N22" s="351"/>
       <c r="O22" s="51"/>
       <c r="P22" s="254">
         <v>10</v>
@@ -28649,16 +28674,16 @@
         <f>IF(Q22&lt;&gt;"",VLOOKUP(Q22,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V22" s="356" t="s">
+      <c r="V22" s="365" t="s">
         <v>484</v>
       </c>
-      <c r="W22" s="356"/>
-      <c r="X22" s="356"/>
-      <c r="Y22" s="356"/>
-      <c r="Z22" s="356"/>
+      <c r="W22" s="365"/>
+      <c r="X22" s="365"/>
+      <c r="Y22" s="365"/>
+      <c r="Z22" s="365"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="373">
+      <c r="A23" s="346">
         <v>6</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -28684,28 +28709,28 @@
         <f t="shared" si="0"/>
         <v>AIF204</v>
       </c>
-      <c r="H23" s="352">
+      <c r="H23" s="357">
         <f>MAX(F23:F24)</f>
         <v>1</v>
       </c>
-      <c r="I23" s="352">
+      <c r="I23" s="357">
         <f>MIN(F23:F24)</f>
         <v>-1</v>
       </c>
-      <c r="J23" s="352" t="str">
+      <c r="J23" s="357" t="str">
         <f ca="1">IF(K23=G23,G24,G23)</f>
         <v/>
       </c>
-      <c r="K23" s="352" t="str">
+      <c r="K23" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H23,F23:F24,0)+(ROW()-1),2))</f>
         <v>AIF204</v>
       </c>
-      <c r="L23" s="365"/>
-      <c r="M23" s="354" t="str">
+      <c r="L23" s="348"/>
+      <c r="M23" s="359" t="str">
         <f ca="1">IF(L23="",K23,L23)</f>
         <v>AIF204</v>
       </c>
-      <c r="N23" s="345" t="str">
+      <c r="N23" s="350" t="str">
         <f ca="1">IF(M23=K23,J23,K23)</f>
         <v/>
       </c>
@@ -28726,19 +28751,19 @@
         <f>IF(Q23&lt;&gt;"",VLOOKUP(Q23,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V23" s="289" t="s">
+      <c r="V23" s="294" t="s">
         <v>480</v>
       </c>
-      <c r="W23" s="289"/>
-      <c r="X23" s="289"/>
-      <c r="Y23" s="289"/>
+      <c r="W23" s="294"/>
+      <c r="X23" s="294"/>
+      <c r="Y23" s="294"/>
       <c r="Z23" s="57">
         <f ca="1">'Nilai Kurikulum 2013'!AB21</f>
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="374"/>
+      <c r="A24" s="347"/>
       <c r="B24" s="54" t="s">
         <v>295</v>
       </c>
@@ -28762,13 +28787,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="353"/>
-      <c r="I24" s="353"/>
-      <c r="J24" s="353"/>
-      <c r="K24" s="353"/>
-      <c r="L24" s="366"/>
-      <c r="M24" s="355"/>
-      <c r="N24" s="346"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="J24" s="358"/>
+      <c r="K24" s="358"/>
+      <c r="L24" s="349"/>
+      <c r="M24" s="360"/>
+      <c r="N24" s="351"/>
       <c r="O24" s="51"/>
       <c r="P24" s="254">
         <v>12</v>
@@ -28786,19 +28811,19 @@
         <f>IF(Q24&lt;&gt;"",VLOOKUP(Q24,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="V24" s="289" t="s">
+      <c r="V24" s="294" t="s">
         <v>481</v>
       </c>
-      <c r="W24" s="289"/>
-      <c r="X24" s="289"/>
-      <c r="Y24" s="289"/>
+      <c r="W24" s="294"/>
+      <c r="X24" s="294"/>
+      <c r="Y24" s="294"/>
       <c r="Z24" s="57">
         <f ca="1">'Nilai Kurikulum 2013'!AB22</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="373">
+      <c r="A25" s="346">
         <v>7</v>
       </c>
       <c r="B25" s="49" t="s">
@@ -28883,7 +28908,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="375"/>
+      <c r="A26" s="361"/>
       <c r="B26" s="251" t="s">
         <v>313</v>
       </c>
@@ -28907,28 +28932,28 @@
         <f t="shared" si="0"/>
         <v>AIF306</v>
       </c>
-      <c r="H26" s="376">
+      <c r="H26" s="352">
         <f>MAX(F26:F27)</f>
         <v>4</v>
       </c>
-      <c r="I26" s="376">
+      <c r="I26" s="352">
         <f>MIN(F26:F27)</f>
         <v>-1</v>
       </c>
-      <c r="J26" s="376" t="str">
+      <c r="J26" s="352" t="str">
         <f ca="1">IF(K26=G26,G27,G26)</f>
         <v/>
       </c>
-      <c r="K26" s="376" t="str">
+      <c r="K26" s="352" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(MAX(H26:H28),F26:F28,0)+(ROW()-1),2))</f>
         <v>AIF306</v>
       </c>
-      <c r="L26" s="367"/>
-      <c r="M26" s="368" t="str">
+      <c r="L26" s="366"/>
+      <c r="M26" s="367" t="str">
         <f ca="1">IF(L26="",K26,L26)</f>
         <v>AIF306</v>
       </c>
-      <c r="N26" s="369" t="str">
+      <c r="N26" s="368" t="str">
         <f ca="1">IF(M26=K26,J26,K26)</f>
         <v/>
       </c>
@@ -28970,7 +28995,7 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="375"/>
+      <c r="A27" s="361"/>
       <c r="B27" s="251" t="s">
         <v>315</v>
       </c>
@@ -28994,13 +29019,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="376"/>
-      <c r="I27" s="376"/>
-      <c r="J27" s="376"/>
-      <c r="K27" s="376"/>
-      <c r="L27" s="367"/>
-      <c r="M27" s="368"/>
-      <c r="N27" s="369"/>
+      <c r="H27" s="352"/>
+      <c r="I27" s="352"/>
+      <c r="J27" s="352"/>
+      <c r="K27" s="352"/>
+      <c r="L27" s="366"/>
+      <c r="M27" s="367"/>
+      <c r="N27" s="368"/>
       <c r="O27" s="51"/>
       <c r="P27" s="254">
         <v>15</v>
@@ -29039,7 +29064,7 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="374"/>
+      <c r="A28" s="347"/>
       <c r="B28" s="54" t="s">
         <v>311</v>
       </c>
@@ -29075,9 +29100,9 @@
         <f ca="1">IF(K26=G28,"",G28)</f>
         <v/>
       </c>
-      <c r="K28" s="353"/>
-      <c r="L28" s="366"/>
-      <c r="M28" s="355"/>
+      <c r="K28" s="358"/>
+      <c r="L28" s="349"/>
+      <c r="M28" s="360"/>
       <c r="N28" s="245" t="str">
         <f ca="1">IF(M26=G28,IF(OR(AND(M26=G26,N26=G27),AND(M26=G27,N26=G26)),IF(M26&lt;&gt;J28,J28,""),IF(N26=G26,G27,G26)),IF(J28=G28,G28,""))</f>
         <v/>
@@ -29102,19 +29127,19 @@
       <c r="V28" s="272" t="s">
         <v>483</v>
       </c>
-      <c r="W28" s="350">
+      <c r="W28" s="375">
         <f ca="1">SUM(W27:Z27)</f>
         <v>144</v>
       </c>
-      <c r="X28" s="350"/>
-      <c r="Y28" s="351">
+      <c r="X28" s="375"/>
+      <c r="Y28" s="381">
         <f ca="1">ROUND(((W27*4)+(X27*3)+(Y27*2)+Z27)/W28,2)</f>
         <v>3.19</v>
       </c>
-      <c r="Z28" s="351"/>
+      <c r="Z28" s="381"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="373">
+      <c r="A29" s="346">
         <v>8</v>
       </c>
       <c r="B29" s="49" t="s">
@@ -29140,28 +29165,28 @@
         <f t="shared" si="0"/>
         <v>AIF401</v>
       </c>
-      <c r="H29" s="352">
+      <c r="H29" s="357">
         <f>MAX(F29:F30)</f>
         <v>4</v>
       </c>
-      <c r="I29" s="352">
+      <c r="I29" s="357">
         <f>MIN(F29:F30)</f>
         <v>-1</v>
       </c>
-      <c r="J29" s="352" t="str">
+      <c r="J29" s="357" t="str">
         <f ca="1">IF(K29=G29,G30,G29)</f>
         <v/>
       </c>
-      <c r="K29" s="352" t="str">
+      <c r="K29" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H29,F29:F30,0)+(ROW()-1),2))</f>
         <v>AIF401</v>
       </c>
-      <c r="L29" s="365"/>
-      <c r="M29" s="354" t="str">
+      <c r="L29" s="348"/>
+      <c r="M29" s="359" t="str">
         <f ca="1">IF(L29="",K29,L29)</f>
         <v>AIF401</v>
       </c>
-      <c r="N29" s="345" t="str">
+      <c r="N29" s="350" t="str">
         <f ca="1">IF(M29=K29,J29,K29)</f>
         <v/>
       </c>
@@ -29184,7 +29209,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="374"/>
+      <c r="A30" s="347"/>
       <c r="B30" s="54" t="s">
         <v>318</v>
       </c>
@@ -29208,13 +29233,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="353"/>
-      <c r="I30" s="353"/>
-      <c r="J30" s="353"/>
-      <c r="K30" s="353"/>
-      <c r="L30" s="366"/>
-      <c r="M30" s="355"/>
-      <c r="N30" s="346"/>
+      <c r="H30" s="358"/>
+      <c r="I30" s="358"/>
+      <c r="J30" s="358"/>
+      <c r="K30" s="358"/>
+      <c r="L30" s="349"/>
+      <c r="M30" s="360"/>
+      <c r="N30" s="351"/>
       <c r="O30" s="51"/>
       <c r="P30" s="254">
         <v>18</v>
@@ -29232,17 +29257,17 @@
         <f>IF(Q30&lt;&gt;"",VLOOKUP(Q30,'Nilai Kurikulum 2013'!$E$48:$O$182,10,FALSE),"")</f>
         <v/>
       </c>
-      <c r="W30" s="349" t="s">
+      <c r="W30" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="X30" s="349"/>
-      <c r="Y30" s="349" t="s">
+      <c r="X30" s="380"/>
+      <c r="Y30" s="380" t="s">
         <v>485</v>
       </c>
-      <c r="Z30" s="349"/>
+      <c r="Z30" s="380"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="373">
+      <c r="A31" s="346">
         <v>9</v>
       </c>
       <c r="B31" s="49" t="s">
@@ -29268,30 +29293,30 @@
         <f t="shared" si="0"/>
         <v>AIF402</v>
       </c>
-      <c r="H31" s="352">
+      <c r="H31" s="357">
         <f>MAX(F31:F32)</f>
         <v>3</v>
       </c>
-      <c r="I31" s="352">
+      <c r="I31" s="357">
         <f>MIN(F31:F32)</f>
         <v>-1</v>
       </c>
-      <c r="J31" s="352" t="str">
+      <c r="J31" s="357" t="str">
         <f ca="1">IF(K31=G31,G32,G31)</f>
         <v/>
       </c>
-      <c r="K31" s="352" t="str">
+      <c r="K31" s="357" t="str">
         <f ca="1">INDIRECT(ADDRESS(MATCH(H31,F31:F32,0)+(ROW()-1),2))</f>
         <v>AIF402</v>
       </c>
-      <c r="L31" s="365" t="s">
+      <c r="L31" s="348" t="s">
         <v>479</v>
       </c>
-      <c r="M31" s="354" t="str">
+      <c r="M31" s="359" t="str">
         <f ca="1">IF(L31="",K31,L31)</f>
         <v>AIF402</v>
       </c>
-      <c r="N31" s="345" t="str">
+      <c r="N31" s="350" t="str">
         <f ca="1">IF(M31=K31,J31,K31)</f>
         <v/>
       </c>
@@ -29314,19 +29339,19 @@
       <c r="V31" s="273" t="s">
         <v>486</v>
       </c>
-      <c r="W31" s="347">
+      <c r="W31" s="378">
         <f ca="1">W28-W20</f>
         <v>-2</v>
       </c>
-      <c r="X31" s="347"/>
-      <c r="Y31" s="348">
+      <c r="X31" s="378"/>
+      <c r="Y31" s="379">
         <f ca="1">Y28-Y20</f>
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="Z31" s="348"/>
+      <c r="Z31" s="379"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="374"/>
+      <c r="A32" s="347"/>
       <c r="B32" s="54" t="s">
         <v>323</v>
       </c>
@@ -29350,13 +29375,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="353"/>
-      <c r="I32" s="353"/>
-      <c r="J32" s="353"/>
-      <c r="K32" s="353"/>
-      <c r="L32" s="366"/>
-      <c r="M32" s="355"/>
-      <c r="N32" s="346"/>
+      <c r="H32" s="358"/>
+      <c r="I32" s="358"/>
+      <c r="J32" s="358"/>
+      <c r="K32" s="358"/>
+      <c r="L32" s="349"/>
+      <c r="M32" s="360"/>
+      <c r="N32" s="351"/>
       <c r="P32" s="254">
         <v>20</v>
       </c>
@@ -29383,14 +29408,78 @@
   </sheetData>
   <sheetProtection password="882B" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="96">
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="C9:T9"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="D4:T4"/>
-    <mergeCell ref="D5:T5"/>
-    <mergeCell ref="C6:T6"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="N15:N16"/>
@@ -29407,78 +29496,14 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="D8:T8"/>
+    <mergeCell ref="C9:T9"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="D4:T4"/>
+    <mergeCell ref="D5:T5"/>
+    <mergeCell ref="C6:T6"/>
   </mergeCells>
   <conditionalFormatting sqref="W31:Z31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
@@ -29653,8 +29678,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29681,240 +29706,240 @@
       <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="381" t="s">
+      <c r="B2" s="345" t="s">
         <v>487</v>
       </c>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="381"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
     </row>
     <row r="3" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="75">
         <v>2</v>
       </c>
-      <c r="B3" s="381" t="s">
+      <c r="B3" s="345" t="s">
         <v>595</v>
       </c>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="381"/>
-      <c r="O3" s="381"/>
-      <c r="P3" s="381"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
     </row>
     <row r="4" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="75">
         <v>3</v>
       </c>
-      <c r="B4" s="381" t="s">
+      <c r="B4" s="345" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="381"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
-      <c r="G4" s="381"/>
-      <c r="H4" s="381"/>
-      <c r="I4" s="381"/>
-      <c r="J4" s="381"/>
-      <c r="K4" s="381"/>
-      <c r="L4" s="381"/>
-      <c r="M4" s="381"/>
-      <c r="N4" s="381"/>
-      <c r="O4" s="381"/>
-      <c r="P4" s="381"/>
+      <c r="C4" s="345"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="345"/>
+      <c r="G4" s="345"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="345"/>
+      <c r="P4" s="345"/>
     </row>
     <row r="5" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
       <c r="B5" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="C5" s="381" t="s">
+      <c r="C5" s="345" t="s">
         <v>489</v>
       </c>
-      <c r="D5" s="381"/>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
-      <c r="G5" s="381"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="381"/>
-      <c r="J5" s="381"/>
-      <c r="K5" s="381"/>
-      <c r="L5" s="381"/>
-      <c r="M5" s="381"/>
-      <c r="N5" s="381"/>
-      <c r="O5" s="381"/>
-      <c r="P5" s="381"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="345"/>
     </row>
     <row r="6" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
       <c r="B6" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="381" t="s">
+      <c r="C6" s="345" t="s">
         <v>490</v>
       </c>
-      <c r="D6" s="381"/>
-      <c r="E6" s="381"/>
-      <c r="F6" s="381"/>
-      <c r="G6" s="381"/>
-      <c r="H6" s="381"/>
-      <c r="I6" s="381"/>
-      <c r="J6" s="381"/>
-      <c r="K6" s="381"/>
-      <c r="L6" s="381"/>
-      <c r="M6" s="381"/>
-      <c r="N6" s="381"/>
-      <c r="O6" s="381"/>
-      <c r="P6" s="381"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="345"/>
+      <c r="K6" s="345"/>
+      <c r="L6" s="345"/>
+      <c r="M6" s="345"/>
+      <c r="N6" s="345"/>
+      <c r="O6" s="345"/>
+      <c r="P6" s="345"/>
     </row>
     <row r="7" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="75"/>
       <c r="B7" s="77" t="s">
         <v>491</v>
       </c>
-      <c r="C7" s="381" t="s">
+      <c r="C7" s="345" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="381"/>
-      <c r="I7" s="381"/>
-      <c r="J7" s="381"/>
-      <c r="K7" s="381"/>
-      <c r="L7" s="381"/>
-      <c r="M7" s="381"/>
-      <c r="N7" s="381"/>
-      <c r="O7" s="381"/>
-      <c r="P7" s="381"/>
+      <c r="D7" s="345"/>
+      <c r="E7" s="345"/>
+      <c r="F7" s="345"/>
+      <c r="G7" s="345"/>
+      <c r="H7" s="345"/>
+      <c r="I7" s="345"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="345"/>
+      <c r="N7" s="345"/>
+      <c r="O7" s="345"/>
+      <c r="P7" s="345"/>
     </row>
     <row r="8" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
       <c r="B8" s="77" t="s">
         <v>493</v>
       </c>
-      <c r="C8" s="381" t="s">
+      <c r="C8" s="345" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="381"/>
-      <c r="E8" s="381"/>
-      <c r="F8" s="381"/>
-      <c r="G8" s="381"/>
-      <c r="H8" s="381"/>
-      <c r="I8" s="381"/>
-      <c r="J8" s="381"/>
-      <c r="K8" s="381"/>
-      <c r="L8" s="381"/>
-      <c r="M8" s="381"/>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
-      <c r="P8" s="381"/>
+      <c r="D8" s="345"/>
+      <c r="E8" s="345"/>
+      <c r="F8" s="345"/>
+      <c r="G8" s="345"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="345"/>
+      <c r="K8" s="345"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="345"/>
+      <c r="O8" s="345"/>
+      <c r="P8" s="345"/>
     </row>
     <row r="9" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="77" t="s">
         <v>494</v>
       </c>
-      <c r="C9" s="381" t="s">
+      <c r="C9" s="345" t="s">
         <v>495</v>
       </c>
-      <c r="D9" s="381"/>
-      <c r="E9" s="381"/>
-      <c r="F9" s="381"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="381"/>
-      <c r="I9" s="381"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="381"/>
-      <c r="M9" s="381"/>
-      <c r="N9" s="381"/>
-      <c r="O9" s="381"/>
-      <c r="P9" s="381"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="345"/>
+      <c r="G9" s="345"/>
+      <c r="H9" s="345"/>
+      <c r="I9" s="345"/>
+      <c r="J9" s="345"/>
+      <c r="K9" s="345"/>
+      <c r="L9" s="345"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
+      <c r="O9" s="345"/>
+      <c r="P9" s="345"/>
     </row>
     <row r="10" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="77" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="381" t="s">
+      <c r="C10" s="345" t="s">
         <v>600</v>
       </c>
-      <c r="D10" s="381"/>
-      <c r="E10" s="381"/>
-      <c r="F10" s="381"/>
-      <c r="G10" s="381"/>
-      <c r="H10" s="381"/>
-      <c r="I10" s="381"/>
-      <c r="J10" s="381"/>
-      <c r="K10" s="381"/>
-      <c r="L10" s="381"/>
-      <c r="M10" s="381"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="381"/>
-      <c r="P10" s="381"/>
+      <c r="D10" s="345"/>
+      <c r="E10" s="345"/>
+      <c r="F10" s="345"/>
+      <c r="G10" s="345"/>
+      <c r="H10" s="345"/>
+      <c r="I10" s="345"/>
+      <c r="J10" s="345"/>
+      <c r="K10" s="345"/>
+      <c r="L10" s="345"/>
+      <c r="M10" s="345"/>
+      <c r="N10" s="345"/>
+      <c r="O10" s="345"/>
+      <c r="P10" s="345"/>
     </row>
     <row r="11" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="77" t="s">
         <v>599</v>
       </c>
-      <c r="C11" s="381" t="s">
+      <c r="C11" s="345" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="381"/>
-      <c r="E11" s="381"/>
-      <c r="F11" s="381"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="381"/>
-      <c r="I11" s="381"/>
-      <c r="J11" s="381"/>
-      <c r="K11" s="381"/>
-      <c r="L11" s="381"/>
-      <c r="M11" s="381"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="381"/>
-      <c r="P11" s="381"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="345"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="345"/>
+      <c r="J11" s="345"/>
+      <c r="K11" s="345"/>
+      <c r="L11" s="345"/>
+      <c r="M11" s="345"/>
+      <c r="N11" s="345"/>
+      <c r="O11" s="345"/>
+      <c r="P11" s="345"/>
     </row>
     <row r="12" spans="1:18" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="76">
         <v>4</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="345" t="s">
         <v>498</v>
       </c>
-      <c r="C12" s="381"/>
-      <c r="D12" s="381"/>
-      <c r="E12" s="381"/>
-      <c r="F12" s="381"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="381"/>
-      <c r="I12" s="381"/>
-      <c r="J12" s="381"/>
-      <c r="K12" s="381"/>
-      <c r="L12" s="381"/>
-      <c r="M12" s="381"/>
-      <c r="N12" s="381"/>
-      <c r="O12" s="381"/>
-      <c r="P12" s="381"/>
+      <c r="C12" s="345"/>
+      <c r="D12" s="345"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="345"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="345"/>
+      <c r="L12" s="345"/>
+      <c r="M12" s="345"/>
+      <c r="N12" s="345"/>
+      <c r="O12" s="345"/>
+      <c r="P12" s="345"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29926,7 +29951,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="J14" s="388" t="s">
+      <c r="J14" s="389" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -29960,8 +29985,8 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="385">
+      <c r="J15" s="390"/>
+      <c r="K15" s="384">
         <v>1</v>
       </c>
       <c r="L15" s="11">
@@ -30009,8 +30034,8 @@
       <c r="H16" s="6">
         <v>122</v>
       </c>
-      <c r="J16" s="389"/>
-      <c r="K16" s="386"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="382"/>
       <c r="L16" s="14">
         <v>2</v>
       </c>
@@ -30057,8 +30082,8 @@
       <c r="H17" s="6">
         <v>122</v>
       </c>
-      <c r="J17" s="389"/>
-      <c r="K17" s="386"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="382"/>
       <c r="L17" s="14">
         <v>3</v>
       </c>
@@ -30104,8 +30129,8 @@
       <c r="H18" s="6">
         <v>122</v>
       </c>
-      <c r="J18" s="389"/>
-      <c r="K18" s="386"/>
+      <c r="J18" s="390"/>
+      <c r="K18" s="382"/>
       <c r="L18" s="14">
         <v>4</v>
       </c>
@@ -30151,8 +30176,8 @@
       <c r="H19" s="6">
         <v>121</v>
       </c>
-      <c r="J19" s="389"/>
-      <c r="K19" s="386"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="382"/>
       <c r="L19" s="14">
         <v>5</v>
       </c>
@@ -30198,8 +30223,8 @@
       <c r="H20" s="6">
         <v>141</v>
       </c>
-      <c r="J20" s="389"/>
-      <c r="K20" s="386"/>
+      <c r="J20" s="390"/>
+      <c r="K20" s="382"/>
       <c r="L20" s="14">
         <v>6</v>
       </c>
@@ -30245,8 +30270,8 @@
       <c r="H21" s="6">
         <v>122</v>
       </c>
-      <c r="J21" s="389"/>
-      <c r="K21" s="391"/>
+      <c r="J21" s="390"/>
+      <c r="K21" s="383"/>
       <c r="L21" s="18">
         <v>7</v>
       </c>
@@ -30280,8 +30305,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="J22" s="389"/>
-      <c r="K22" s="386">
+      <c r="J22" s="390"/>
+      <c r="K22" s="382">
         <v>2</v>
       </c>
       <c r="L22" s="11">
@@ -30329,8 +30354,8 @@
       <c r="H23" s="6">
         <v>132</v>
       </c>
-      <c r="J23" s="389"/>
-      <c r="K23" s="386"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="382"/>
       <c r="L23" s="14">
         <v>2</v>
       </c>
@@ -30376,8 +30401,8 @@
       <c r="H24" s="6">
         <v>132</v>
       </c>
-      <c r="J24" s="389"/>
-      <c r="K24" s="386"/>
+      <c r="J24" s="390"/>
+      <c r="K24" s="382"/>
       <c r="L24" s="14">
         <v>3</v>
       </c>
@@ -30423,8 +30448,8 @@
       <c r="H25" s="6">
         <v>132</v>
       </c>
-      <c r="J25" s="389"/>
-      <c r="K25" s="386"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="382"/>
       <c r="L25" s="14">
         <v>4</v>
       </c>
@@ -30470,8 +30495,8 @@
       <c r="H26" s="6">
         <v>132</v>
       </c>
-      <c r="J26" s="389"/>
-      <c r="K26" s="386"/>
+      <c r="J26" s="390"/>
+      <c r="K26" s="382"/>
       <c r="L26" s="14">
         <v>5</v>
       </c>
@@ -30517,8 +30542,8 @@
       <c r="H27" s="6">
         <v>132</v>
       </c>
-      <c r="J27" s="389"/>
-      <c r="K27" s="386"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="382"/>
       <c r="L27" s="14">
         <v>6</v>
       </c>
@@ -30556,8 +30581,8 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="389"/>
-      <c r="K28" s="386"/>
+      <c r="J28" s="390"/>
+      <c r="K28" s="382"/>
       <c r="L28" s="14">
         <v>7</v>
       </c>
@@ -30591,8 +30616,8 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="J29" s="389"/>
-      <c r="K29" s="391"/>
+      <c r="J29" s="390"/>
+      <c r="K29" s="383"/>
       <c r="L29" s="18">
         <v>8</v>
       </c>
@@ -30638,8 +30663,8 @@
       <c r="H30" s="6">
         <v>142</v>
       </c>
-      <c r="J30" s="389"/>
-      <c r="K30" s="386">
+      <c r="J30" s="390"/>
+      <c r="K30" s="382">
         <v>3</v>
       </c>
       <c r="L30" s="11">
@@ -30687,8 +30712,8 @@
       <c r="H31" s="6">
         <v>142</v>
       </c>
-      <c r="J31" s="389"/>
-      <c r="K31" s="386"/>
+      <c r="J31" s="390"/>
+      <c r="K31" s="382"/>
       <c r="L31" s="14">
         <v>2</v>
       </c>
@@ -30726,8 +30751,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="J32" s="389"/>
-      <c r="K32" s="386"/>
+      <c r="J32" s="390"/>
+      <c r="K32" s="382"/>
       <c r="L32" s="14">
         <v>3</v>
       </c>
@@ -30765,8 +30790,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="J33" s="389"/>
-      <c r="K33" s="386"/>
+      <c r="J33" s="390"/>
+      <c r="K33" s="382"/>
       <c r="L33" s="14">
         <v>4</v>
       </c>
@@ -30800,8 +30825,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="J34" s="389"/>
-      <c r="K34" s="386"/>
+      <c r="J34" s="390"/>
+      <c r="K34" s="382"/>
       <c r="L34" s="14">
         <v>5</v>
       </c>
@@ -30847,8 +30872,8 @@
       <c r="H35" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="J35" s="389"/>
-      <c r="K35" s="386"/>
+      <c r="J35" s="390"/>
+      <c r="K35" s="382"/>
       <c r="L35" s="14">
         <v>6</v>
       </c>
@@ -30894,8 +30919,8 @@
       <c r="H36" s="6">
         <v>152</v>
       </c>
-      <c r="J36" s="389"/>
-      <c r="K36" s="391"/>
+      <c r="J36" s="390"/>
+      <c r="K36" s="383"/>
       <c r="L36" s="18">
         <v>7</v>
       </c>
@@ -30927,8 +30952,8 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="J37" s="389"/>
-      <c r="K37" s="386">
+      <c r="J37" s="390"/>
+      <c r="K37" s="382">
         <v>4</v>
       </c>
       <c r="L37" s="11">
@@ -30968,8 +30993,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="J38" s="389"/>
-      <c r="K38" s="386"/>
+      <c r="J38" s="390"/>
+      <c r="K38" s="382"/>
       <c r="L38" s="14">
         <v>2</v>
       </c>
@@ -31007,8 +31032,8 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="J39" s="389"/>
-      <c r="K39" s="386"/>
+      <c r="J39" s="390"/>
+      <c r="K39" s="382"/>
       <c r="L39" s="14">
         <v>3</v>
       </c>
@@ -31046,8 +31071,8 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="J40" s="389"/>
-      <c r="K40" s="386"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="382"/>
       <c r="L40" s="14">
         <v>4</v>
       </c>
@@ -31085,8 +31110,8 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="J41" s="389"/>
-      <c r="K41" s="386"/>
+      <c r="J41" s="390"/>
+      <c r="K41" s="382"/>
       <c r="L41" s="14">
         <v>5</v>
       </c>
@@ -31124,8 +31149,8 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="J42" s="389"/>
-      <c r="K42" s="386"/>
+      <c r="J42" s="390"/>
+      <c r="K42" s="382"/>
       <c r="L42" s="14">
         <v>6</v>
       </c>
@@ -31163,8 +31188,8 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="J43" s="389"/>
-      <c r="K43" s="391"/>
+      <c r="J43" s="390"/>
+      <c r="K43" s="383"/>
       <c r="L43" s="18">
         <v>7</v>
       </c>
@@ -31202,8 +31227,8 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="J44" s="389"/>
-      <c r="K44" s="386">
+      <c r="J44" s="390"/>
+      <c r="K44" s="382">
         <v>5</v>
       </c>
       <c r="L44" s="11">
@@ -31243,8 +31268,8 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="J45" s="389"/>
-      <c r="K45" s="386"/>
+      <c r="J45" s="390"/>
+      <c r="K45" s="382"/>
       <c r="L45" s="14">
         <v>2</v>
       </c>
@@ -31282,8 +31307,8 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="J46" s="389"/>
-      <c r="K46" s="386"/>
+      <c r="J46" s="390"/>
+      <c r="K46" s="382"/>
       <c r="L46" s="14">
         <v>3</v>
       </c>
@@ -31321,8 +31346,8 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="J47" s="389"/>
-      <c r="K47" s="391"/>
+      <c r="J47" s="390"/>
+      <c r="K47" s="383"/>
       <c r="L47" s="18">
         <v>4</v>
       </c>
@@ -31360,8 +31385,8 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="J48" s="389"/>
-      <c r="K48" s="386">
+      <c r="J48" s="390"/>
+      <c r="K48" s="382">
         <v>6</v>
       </c>
       <c r="L48" s="11">
@@ -31401,8 +31426,8 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="J49" s="389"/>
-      <c r="K49" s="386"/>
+      <c r="J49" s="390"/>
+      <c r="K49" s="382"/>
       <c r="L49" s="14">
         <v>2</v>
       </c>
@@ -31440,8 +31465,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="J50" s="389"/>
-      <c r="K50" s="386"/>
+      <c r="J50" s="390"/>
+      <c r="K50" s="382"/>
       <c r="L50" s="14">
         <v>3</v>
       </c>
@@ -31479,8 +31504,8 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="J51" s="389"/>
-      <c r="K51" s="386"/>
+      <c r="J51" s="390"/>
+      <c r="K51" s="382"/>
       <c r="L51" s="14">
         <v>4</v>
       </c>
@@ -31518,8 +31543,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="J52" s="389"/>
-      <c r="K52" s="391"/>
+      <c r="J52" s="390"/>
+      <c r="K52" s="383"/>
       <c r="L52" s="18">
         <v>5</v>
       </c>
@@ -31557,8 +31582,8 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="J53" s="389"/>
-      <c r="K53" s="386">
+      <c r="J53" s="390"/>
+      <c r="K53" s="382">
         <v>7</v>
       </c>
       <c r="L53" s="11">
@@ -31590,8 +31615,8 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="J54" s="389"/>
-      <c r="K54" s="386"/>
+      <c r="J54" s="390"/>
+      <c r="K54" s="382"/>
       <c r="L54" s="14">
         <v>2</v>
       </c>
@@ -31621,8 +31646,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="J55" s="389"/>
-      <c r="K55" s="391"/>
+      <c r="J55" s="390"/>
+      <c r="K55" s="383"/>
       <c r="L55" s="18">
         <v>3</v>
       </c>
@@ -31652,8 +31677,8 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="J56" s="389"/>
-      <c r="K56" s="386">
+      <c r="J56" s="390"/>
+      <c r="K56" s="382">
         <v>8</v>
       </c>
       <c r="L56" s="11">
@@ -31685,8 +31710,8 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="J57" s="389"/>
-      <c r="K57" s="386"/>
+      <c r="J57" s="390"/>
+      <c r="K57" s="382"/>
       <c r="L57" s="14">
         <v>2</v>
       </c>
@@ -31716,8 +31741,8 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="J58" s="389"/>
-      <c r="K58" s="387"/>
+      <c r="J58" s="390"/>
+      <c r="K58" s="388"/>
       <c r="L58" s="29">
         <v>3</v>
       </c>
@@ -31747,10 +31772,10 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="J59" s="388" t="s">
+      <c r="J59" s="389" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="385">
+      <c r="K59" s="384">
         <v>5</v>
       </c>
       <c r="L59" s="11">
@@ -31782,8 +31807,8 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="J60" s="389"/>
-      <c r="K60" s="386"/>
+      <c r="J60" s="390"/>
+      <c r="K60" s="382"/>
       <c r="L60" s="14">
         <v>2</v>
       </c>
@@ -31813,8 +31838,8 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="J61" s="389"/>
-      <c r="K61" s="386"/>
+      <c r="J61" s="390"/>
+      <c r="K61" s="382"/>
       <c r="L61" s="14">
         <v>3</v>
       </c>
@@ -31844,8 +31869,8 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="J62" s="389"/>
-      <c r="K62" s="391"/>
+      <c r="J62" s="390"/>
+      <c r="K62" s="383"/>
       <c r="L62" s="18">
         <v>4</v>
       </c>
@@ -31875,8 +31900,8 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="J63" s="389"/>
-      <c r="K63" s="386">
+      <c r="J63" s="390"/>
+      <c r="K63" s="382">
         <v>6</v>
       </c>
       <c r="L63" s="11">
@@ -31908,8 +31933,8 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="J64" s="389"/>
-      <c r="K64" s="386"/>
+      <c r="J64" s="390"/>
+      <c r="K64" s="382"/>
       <c r="L64" s="14">
         <v>2</v>
       </c>
@@ -31939,8 +31964,8 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="J65" s="389"/>
-      <c r="K65" s="386"/>
+      <c r="J65" s="390"/>
+      <c r="K65" s="382"/>
       <c r="L65" s="14">
         <v>3</v>
       </c>
@@ -31970,8 +31995,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="J66" s="389"/>
-      <c r="K66" s="387"/>
+      <c r="J66" s="390"/>
+      <c r="K66" s="388"/>
       <c r="L66" s="29">
         <v>4</v>
       </c>
@@ -32001,10 +32026,10 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="J67" s="388" t="s">
+      <c r="J67" s="389" t="s">
         <v>54</v>
       </c>
-      <c r="K67" s="385">
+      <c r="K67" s="384">
         <v>1</v>
       </c>
       <c r="L67" s="11">
@@ -32036,8 +32061,8 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="J68" s="389"/>
-      <c r="K68" s="386"/>
+      <c r="J68" s="390"/>
+      <c r="K68" s="382"/>
       <c r="L68" s="14">
         <v>2</v>
       </c>
@@ -32067,8 +32092,8 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="J69" s="389"/>
-      <c r="K69" s="391"/>
+      <c r="J69" s="390"/>
+      <c r="K69" s="383"/>
       <c r="L69" s="18">
         <v>3</v>
       </c>
@@ -32098,8 +32123,8 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="J70" s="389"/>
-      <c r="K70" s="386">
+      <c r="J70" s="390"/>
+      <c r="K70" s="382">
         <v>2</v>
       </c>
       <c r="L70" s="11">
@@ -32131,8 +32156,8 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="J71" s="389"/>
-      <c r="K71" s="386"/>
+      <c r="J71" s="390"/>
+      <c r="K71" s="382"/>
       <c r="L71" s="14">
         <v>2</v>
       </c>
@@ -32162,8 +32187,8 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="J72" s="389"/>
-      <c r="K72" s="386"/>
+      <c r="J72" s="390"/>
+      <c r="K72" s="382"/>
       <c r="L72" s="14">
         <v>3</v>
       </c>
@@ -32193,8 +32218,8 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="J73" s="389"/>
-      <c r="K73" s="391"/>
+      <c r="J73" s="390"/>
+      <c r="K73" s="383"/>
       <c r="L73" s="18">
         <v>4</v>
       </c>
@@ -32224,7 +32249,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="J74" s="389"/>
+      <c r="J74" s="390"/>
       <c r="K74" s="32">
         <v>3</v>
       </c>
@@ -32257,8 +32282,8 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="J75" s="389"/>
-      <c r="K75" s="386">
+      <c r="J75" s="390"/>
+      <c r="K75" s="382">
         <v>4</v>
       </c>
       <c r="L75" s="11">
@@ -32290,8 +32315,8 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="J76" s="389"/>
-      <c r="K76" s="386"/>
+      <c r="J76" s="390"/>
+      <c r="K76" s="382"/>
       <c r="L76" s="18">
         <v>2</v>
       </c>
@@ -32321,8 +32346,8 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="J77" s="389"/>
-      <c r="K77" s="390">
+      <c r="J77" s="390"/>
+      <c r="K77" s="391">
         <v>5</v>
       </c>
       <c r="L77" s="11">
@@ -32354,8 +32379,8 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="J78" s="389"/>
-      <c r="K78" s="386"/>
+      <c r="J78" s="390"/>
+      <c r="K78" s="382"/>
       <c r="L78" s="14">
         <v>2</v>
       </c>
@@ -32385,8 +32410,8 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="J79" s="389"/>
-      <c r="K79" s="386"/>
+      <c r="J79" s="390"/>
+      <c r="K79" s="382"/>
       <c r="L79" s="14">
         <v>3</v>
       </c>
@@ -32416,8 +32441,8 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="J80" s="389"/>
-      <c r="K80" s="386"/>
+      <c r="J80" s="390"/>
+      <c r="K80" s="382"/>
       <c r="L80" s="14">
         <v>4</v>
       </c>
@@ -32447,8 +32472,8 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="J81" s="389"/>
-      <c r="K81" s="386"/>
+      <c r="J81" s="390"/>
+      <c r="K81" s="382"/>
       <c r="L81" s="14">
         <v>5</v>
       </c>
@@ -32478,8 +32503,8 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="J82" s="389"/>
-      <c r="K82" s="386"/>
+      <c r="J82" s="390"/>
+      <c r="K82" s="382"/>
       <c r="L82" s="14">
         <v>6</v>
       </c>
@@ -32509,8 +32534,8 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="J83" s="389"/>
-      <c r="K83" s="386"/>
+      <c r="J83" s="390"/>
+      <c r="K83" s="382"/>
       <c r="L83" s="14">
         <v>7</v>
       </c>
@@ -32540,8 +32565,8 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="J84" s="389"/>
-      <c r="K84" s="386"/>
+      <c r="J84" s="390"/>
+      <c r="K84" s="382"/>
       <c r="L84" s="14">
         <v>8</v>
       </c>
@@ -32571,8 +32596,8 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="J85" s="389"/>
-      <c r="K85" s="386"/>
+      <c r="J85" s="390"/>
+      <c r="K85" s="382"/>
       <c r="L85" s="14">
         <v>9</v>
       </c>
@@ -32602,8 +32627,8 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="J86" s="389"/>
-      <c r="K86" s="386"/>
+      <c r="J86" s="390"/>
+      <c r="K86" s="382"/>
       <c r="L86" s="14">
         <v>10</v>
       </c>
@@ -32633,8 +32658,8 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="J87" s="389"/>
-      <c r="K87" s="386"/>
+      <c r="J87" s="390"/>
+      <c r="K87" s="382"/>
       <c r="L87" s="14">
         <v>11</v>
       </c>
@@ -32664,8 +32689,8 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="J88" s="389"/>
-      <c r="K88" s="386"/>
+      <c r="J88" s="390"/>
+      <c r="K88" s="382"/>
       <c r="L88" s="14">
         <v>12</v>
       </c>
@@ -32695,8 +32720,8 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
-      <c r="J89" s="389"/>
-      <c r="K89" s="386"/>
+      <c r="J89" s="390"/>
+      <c r="K89" s="382"/>
       <c r="L89" s="14">
         <v>13</v>
       </c>
@@ -32726,8 +32751,8 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="J90" s="389"/>
-      <c r="K90" s="391"/>
+      <c r="J90" s="390"/>
+      <c r="K90" s="383"/>
       <c r="L90" s="18">
         <v>14</v>
       </c>
@@ -32757,8 +32782,8 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
-      <c r="J91" s="389"/>
-      <c r="K91" s="386">
+      <c r="J91" s="390"/>
+      <c r="K91" s="382">
         <v>6</v>
       </c>
       <c r="L91" s="11">
@@ -32790,8 +32815,8 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
-      <c r="J92" s="389"/>
-      <c r="K92" s="386"/>
+      <c r="J92" s="390"/>
+      <c r="K92" s="382"/>
       <c r="L92" s="14">
         <v>2</v>
       </c>
@@ -32821,8 +32846,8 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
-      <c r="J93" s="389"/>
-      <c r="K93" s="386"/>
+      <c r="J93" s="390"/>
+      <c r="K93" s="382"/>
       <c r="L93" s="14">
         <v>3</v>
       </c>
@@ -32852,8 +32877,8 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
-      <c r="J94" s="389"/>
-      <c r="K94" s="386"/>
+      <c r="J94" s="390"/>
+      <c r="K94" s="382"/>
       <c r="L94" s="14">
         <v>4</v>
       </c>
@@ -32883,8 +32908,8 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="J95" s="389"/>
-      <c r="K95" s="386"/>
+      <c r="J95" s="390"/>
+      <c r="K95" s="382"/>
       <c r="L95" s="14">
         <v>5</v>
       </c>
@@ -32914,8 +32939,8 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
-      <c r="J96" s="389"/>
-      <c r="K96" s="386"/>
+      <c r="J96" s="390"/>
+      <c r="K96" s="382"/>
       <c r="L96" s="14">
         <v>6</v>
       </c>
@@ -32945,8 +32970,8 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
-      <c r="J97" s="389"/>
-      <c r="K97" s="386"/>
+      <c r="J97" s="390"/>
+      <c r="K97" s="382"/>
       <c r="L97" s="14">
         <v>7</v>
       </c>
@@ -32976,8 +33001,8 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
-      <c r="J98" s="389"/>
-      <c r="K98" s="386"/>
+      <c r="J98" s="390"/>
+      <c r="K98" s="382"/>
       <c r="L98" s="14">
         <v>8</v>
       </c>
@@ -33007,8 +33032,8 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
-      <c r="J99" s="389"/>
-      <c r="K99" s="386"/>
+      <c r="J99" s="390"/>
+      <c r="K99" s="382"/>
       <c r="L99" s="14">
         <v>9</v>
       </c>
@@ -33038,8 +33063,8 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
-      <c r="J100" s="389"/>
-      <c r="K100" s="386"/>
+      <c r="J100" s="390"/>
+      <c r="K100" s="382"/>
       <c r="L100" s="14">
         <v>10</v>
       </c>
@@ -33069,8 +33094,8 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
-      <c r="J101" s="389"/>
-      <c r="K101" s="386"/>
+      <c r="J101" s="390"/>
+      <c r="K101" s="382"/>
       <c r="L101" s="14">
         <v>11</v>
       </c>
@@ -33100,8 +33125,8 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
-      <c r="J102" s="389"/>
-      <c r="K102" s="386"/>
+      <c r="J102" s="390"/>
+      <c r="K102" s="382"/>
       <c r="L102" s="14">
         <v>12</v>
       </c>
@@ -33131,8 +33156,8 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
-      <c r="J103" s="389"/>
-      <c r="K103" s="386"/>
+      <c r="J103" s="390"/>
+      <c r="K103" s="382"/>
       <c r="L103" s="14">
         <v>13</v>
       </c>
@@ -33162,8 +33187,8 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
-      <c r="J104" s="389"/>
-      <c r="K104" s="386"/>
+      <c r="J104" s="390"/>
+      <c r="K104" s="382"/>
       <c r="L104" s="14">
         <v>14</v>
       </c>
@@ -33193,8 +33218,8 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
-      <c r="J105" s="389"/>
-      <c r="K105" s="386"/>
+      <c r="J105" s="390"/>
+      <c r="K105" s="382"/>
       <c r="L105" s="14">
         <v>15</v>
       </c>
@@ -33224,8 +33249,8 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="J106" s="389"/>
-      <c r="K106" s="386"/>
+      <c r="J106" s="390"/>
+      <c r="K106" s="382"/>
       <c r="L106" s="14">
         <v>16</v>
       </c>
@@ -33255,8 +33280,8 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
-      <c r="J107" s="389"/>
-      <c r="K107" s="386"/>
+      <c r="J107" s="390"/>
+      <c r="K107" s="382"/>
       <c r="L107" s="14">
         <v>17</v>
       </c>
@@ -33286,8 +33311,8 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
-      <c r="J108" s="389"/>
-      <c r="K108" s="386"/>
+      <c r="J108" s="390"/>
+      <c r="K108" s="382"/>
       <c r="L108" s="14">
         <v>18</v>
       </c>
@@ -33317,8 +33342,8 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
-      <c r="J109" s="389"/>
-      <c r="K109" s="386"/>
+      <c r="J109" s="390"/>
+      <c r="K109" s="382"/>
       <c r="L109" s="14">
         <v>19</v>
       </c>
@@ -33348,8 +33373,8 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
-      <c r="J110" s="389"/>
-      <c r="K110" s="386"/>
+      <c r="J110" s="390"/>
+      <c r="K110" s="382"/>
       <c r="L110" s="14">
         <v>20</v>
       </c>
@@ -33379,8 +33404,8 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
-      <c r="J111" s="389"/>
-      <c r="K111" s="386"/>
+      <c r="J111" s="390"/>
+      <c r="K111" s="382"/>
       <c r="L111" s="14">
         <v>21</v>
       </c>
@@ -33410,8 +33435,8 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
-      <c r="J112" s="389"/>
-      <c r="K112" s="391"/>
+      <c r="J112" s="390"/>
+      <c r="K112" s="383"/>
       <c r="L112" s="18">
         <v>22</v>
       </c>
@@ -33441,8 +33466,8 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
-      <c r="J113" s="389"/>
-      <c r="K113" s="386">
+      <c r="J113" s="390"/>
+      <c r="K113" s="382">
         <v>7</v>
       </c>
       <c r="L113" s="11">
@@ -33474,8 +33499,8 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
-      <c r="J114" s="389"/>
-      <c r="K114" s="386"/>
+      <c r="J114" s="390"/>
+      <c r="K114" s="382"/>
       <c r="L114" s="14">
         <v>2</v>
       </c>
@@ -33505,8 +33530,8 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
-      <c r="J115" s="389"/>
-      <c r="K115" s="386"/>
+      <c r="J115" s="390"/>
+      <c r="K115" s="382"/>
       <c r="L115" s="14">
         <v>3</v>
       </c>
@@ -33536,8 +33561,8 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
-      <c r="J116" s="389"/>
-      <c r="K116" s="386"/>
+      <c r="J116" s="390"/>
+      <c r="K116" s="382"/>
       <c r="L116" s="14">
         <v>4</v>
       </c>
@@ -33567,8 +33592,8 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
-      <c r="J117" s="389"/>
-      <c r="K117" s="386"/>
+      <c r="J117" s="390"/>
+      <c r="K117" s="382"/>
       <c r="L117" s="14">
         <v>5</v>
       </c>
@@ -33598,8 +33623,8 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
-      <c r="J118" s="389"/>
-      <c r="K118" s="386"/>
+      <c r="J118" s="390"/>
+      <c r="K118" s="382"/>
       <c r="L118" s="14">
         <v>6</v>
       </c>
@@ -33629,8 +33654,8 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
-      <c r="J119" s="389"/>
-      <c r="K119" s="386"/>
+      <c r="J119" s="390"/>
+      <c r="K119" s="382"/>
       <c r="L119" s="14">
         <v>7</v>
       </c>
@@ -33660,8 +33685,8 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
-      <c r="J120" s="389"/>
-      <c r="K120" s="386"/>
+      <c r="J120" s="390"/>
+      <c r="K120" s="382"/>
       <c r="L120" s="14">
         <v>8</v>
       </c>
@@ -33691,8 +33716,8 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
-      <c r="J121" s="389"/>
-      <c r="K121" s="386"/>
+      <c r="J121" s="390"/>
+      <c r="K121" s="382"/>
       <c r="L121" s="14">
         <v>9</v>
       </c>
@@ -33722,8 +33747,8 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
-      <c r="J122" s="389"/>
-      <c r="K122" s="386"/>
+      <c r="J122" s="390"/>
+      <c r="K122" s="382"/>
       <c r="L122" s="14">
         <v>10</v>
       </c>
@@ -33753,8 +33778,8 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
-      <c r="J123" s="389"/>
-      <c r="K123" s="386"/>
+      <c r="J123" s="390"/>
+      <c r="K123" s="382"/>
       <c r="L123" s="14">
         <v>11</v>
       </c>
@@ -33784,8 +33809,8 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
-      <c r="J124" s="389"/>
-      <c r="K124" s="386"/>
+      <c r="J124" s="390"/>
+      <c r="K124" s="382"/>
       <c r="L124" s="14">
         <v>12</v>
       </c>
@@ -33815,8 +33840,8 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
-      <c r="J125" s="389"/>
-      <c r="K125" s="386"/>
+      <c r="J125" s="390"/>
+      <c r="K125" s="382"/>
       <c r="L125" s="14">
         <v>13</v>
       </c>
@@ -33846,8 +33871,8 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
-      <c r="J126" s="389"/>
-      <c r="K126" s="386"/>
+      <c r="J126" s="390"/>
+      <c r="K126" s="382"/>
       <c r="L126" s="14">
         <v>14</v>
       </c>
@@ -33877,8 +33902,8 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
-      <c r="J127" s="389"/>
-      <c r="K127" s="386"/>
+      <c r="J127" s="390"/>
+      <c r="K127" s="382"/>
       <c r="L127" s="14">
         <v>15</v>
       </c>
@@ -33908,8 +33933,8 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="J128" s="389"/>
-      <c r="K128" s="386"/>
+      <c r="J128" s="390"/>
+      <c r="K128" s="382"/>
       <c r="L128" s="14">
         <v>16</v>
       </c>
@@ -33939,8 +33964,8 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
-      <c r="J129" s="389"/>
-      <c r="K129" s="386"/>
+      <c r="J129" s="390"/>
+      <c r="K129" s="382"/>
       <c r="L129" s="14">
         <v>17</v>
       </c>
@@ -33970,8 +33995,8 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
-      <c r="J130" s="389"/>
-      <c r="K130" s="386"/>
+      <c r="J130" s="390"/>
+      <c r="K130" s="382"/>
       <c r="L130" s="14">
         <v>18</v>
       </c>
@@ -34001,8 +34026,8 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
-      <c r="J131" s="389"/>
-      <c r="K131" s="386"/>
+      <c r="J131" s="390"/>
+      <c r="K131" s="382"/>
       <c r="L131" s="14">
         <v>19</v>
       </c>
@@ -34032,8 +34057,8 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
-      <c r="J132" s="389"/>
-      <c r="K132" s="386"/>
+      <c r="J132" s="390"/>
+      <c r="K132" s="382"/>
       <c r="L132" s="14">
         <v>20</v>
       </c>
@@ -34063,8 +34088,8 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="J133" s="389"/>
-      <c r="K133" s="386"/>
+      <c r="J133" s="390"/>
+      <c r="K133" s="382"/>
       <c r="L133" s="14">
         <v>21</v>
       </c>
@@ -34094,8 +34119,8 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
-      <c r="J134" s="389"/>
-      <c r="K134" s="386"/>
+      <c r="J134" s="390"/>
+      <c r="K134" s="382"/>
       <c r="L134" s="14">
         <v>22</v>
       </c>
@@ -34125,8 +34150,8 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-      <c r="J135" s="389"/>
-      <c r="K135" s="386"/>
+      <c r="J135" s="390"/>
+      <c r="K135" s="382"/>
       <c r="L135" s="14">
         <v>23</v>
       </c>
@@ -34156,8 +34181,8 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
-      <c r="J136" s="389"/>
-      <c r="K136" s="391"/>
+      <c r="J136" s="390"/>
+      <c r="K136" s="383"/>
       <c r="L136" s="18">
         <v>24</v>
       </c>
@@ -34187,8 +34212,8 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-      <c r="J137" s="389"/>
-      <c r="K137" s="386">
+      <c r="J137" s="390"/>
+      <c r="K137" s="382">
         <v>8</v>
       </c>
       <c r="L137" s="11">
@@ -34220,8 +34245,8 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="J138" s="389"/>
-      <c r="K138" s="386"/>
+      <c r="J138" s="390"/>
+      <c r="K138" s="382"/>
       <c r="L138" s="14">
         <v>2</v>
       </c>
@@ -34251,8 +34276,8 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
-      <c r="J139" s="389"/>
-      <c r="K139" s="386"/>
+      <c r="J139" s="390"/>
+      <c r="K139" s="382"/>
       <c r="L139" s="14">
         <v>3</v>
       </c>
@@ -34282,8 +34307,8 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
-      <c r="J140" s="389"/>
-      <c r="K140" s="386"/>
+      <c r="J140" s="390"/>
+      <c r="K140" s="382"/>
       <c r="L140" s="14">
         <v>4</v>
       </c>
@@ -34313,8 +34338,8 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
-      <c r="J141" s="389"/>
-      <c r="K141" s="386"/>
+      <c r="J141" s="390"/>
+      <c r="K141" s="382"/>
       <c r="L141" s="14">
         <v>5</v>
       </c>
@@ -34344,8 +34369,8 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
-      <c r="J142" s="389"/>
-      <c r="K142" s="386"/>
+      <c r="J142" s="390"/>
+      <c r="K142" s="382"/>
       <c r="L142" s="14">
         <v>6</v>
       </c>
@@ -34375,8 +34400,8 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
-      <c r="J143" s="389"/>
-      <c r="K143" s="386"/>
+      <c r="J143" s="390"/>
+      <c r="K143" s="382"/>
       <c r="L143" s="14">
         <v>7</v>
       </c>
@@ -34406,8 +34431,8 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
-      <c r="J144" s="389"/>
-      <c r="K144" s="386"/>
+      <c r="J144" s="390"/>
+      <c r="K144" s="382"/>
       <c r="L144" s="14">
         <v>8</v>
       </c>
@@ -34437,8 +34462,8 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
-      <c r="J145" s="389"/>
-      <c r="K145" s="386"/>
+      <c r="J145" s="390"/>
+      <c r="K145" s="382"/>
       <c r="L145" s="14">
         <v>9</v>
       </c>
@@ -34468,8 +34493,8 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
-      <c r="J146" s="389"/>
-      <c r="K146" s="386"/>
+      <c r="J146" s="390"/>
+      <c r="K146" s="382"/>
       <c r="L146" s="14">
         <v>10</v>
       </c>
@@ -34499,8 +34524,8 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
-      <c r="J147" s="389"/>
-      <c r="K147" s="386"/>
+      <c r="J147" s="390"/>
+      <c r="K147" s="382"/>
       <c r="L147" s="14">
         <v>11</v>
       </c>
@@ -34530,8 +34555,8 @@
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
-      <c r="J148" s="389"/>
-      <c r="K148" s="386"/>
+      <c r="J148" s="390"/>
+      <c r="K148" s="382"/>
       <c r="L148" s="14">
         <v>12</v>
       </c>
@@ -34561,8 +34586,8 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
-      <c r="J149" s="389"/>
-      <c r="K149" s="386"/>
+      <c r="J149" s="390"/>
+      <c r="K149" s="382"/>
       <c r="L149" s="14">
         <v>13</v>
       </c>
@@ -34592,8 +34617,8 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
-      <c r="J150" s="389"/>
-      <c r="K150" s="386"/>
+      <c r="J150" s="390"/>
+      <c r="K150" s="382"/>
       <c r="L150" s="14">
         <v>14</v>
       </c>
@@ -34623,8 +34648,8 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
-      <c r="J151" s="389"/>
-      <c r="K151" s="386"/>
+      <c r="J151" s="390"/>
+      <c r="K151" s="382"/>
       <c r="L151" s="14">
         <v>15</v>
       </c>
@@ -34654,8 +34679,8 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
-      <c r="J152" s="389"/>
-      <c r="K152" s="386"/>
+      <c r="J152" s="390"/>
+      <c r="K152" s="382"/>
       <c r="L152" s="14">
         <v>16</v>
       </c>
@@ -34685,8 +34710,8 @@
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
-      <c r="J153" s="389"/>
-      <c r="K153" s="386"/>
+      <c r="J153" s="390"/>
+      <c r="K153" s="382"/>
       <c r="L153" s="14">
         <v>17</v>
       </c>
@@ -34716,8 +34741,8 @@
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
-      <c r="J154" s="389"/>
-      <c r="K154" s="386"/>
+      <c r="J154" s="390"/>
+      <c r="K154" s="382"/>
       <c r="L154" s="14">
         <v>18</v>
       </c>
@@ -34747,8 +34772,8 @@
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
-      <c r="J155" s="389"/>
-      <c r="K155" s="386"/>
+      <c r="J155" s="390"/>
+      <c r="K155" s="382"/>
       <c r="L155" s="14">
         <v>19</v>
       </c>
@@ -34778,8 +34803,8 @@
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
-      <c r="J156" s="389"/>
-      <c r="K156" s="386"/>
+      <c r="J156" s="390"/>
+      <c r="K156" s="382"/>
       <c r="L156" s="14">
         <v>20</v>
       </c>
@@ -34809,8 +34834,8 @@
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
-      <c r="J157" s="389"/>
-      <c r="K157" s="386"/>
+      <c r="J157" s="390"/>
+      <c r="K157" s="382"/>
       <c r="L157" s="14">
         <v>21</v>
       </c>
@@ -34837,8 +34862,8 @@
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
-      <c r="J158" s="389"/>
-      <c r="K158" s="386"/>
+      <c r="J158" s="390"/>
+      <c r="K158" s="382"/>
       <c r="L158" s="14">
         <v>22</v>
       </c>
@@ -34868,8 +34893,8 @@
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
-      <c r="J159" s="389"/>
-      <c r="K159" s="386"/>
+      <c r="J159" s="390"/>
+      <c r="K159" s="382"/>
       <c r="L159" s="14">
         <v>23</v>
       </c>
@@ -34899,8 +34924,8 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
-      <c r="J160" s="389"/>
-      <c r="K160" s="386"/>
+      <c r="J160" s="390"/>
+      <c r="K160" s="382"/>
       <c r="L160" s="14">
         <v>24</v>
       </c>
@@ -34930,8 +34955,8 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
-      <c r="J161" s="389"/>
-      <c r="K161" s="387"/>
+      <c r="J161" s="390"/>
+      <c r="K161" s="388"/>
       <c r="L161" s="252">
         <v>25</v>
       </c>
@@ -34962,10 +34987,10 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="236"/>
-      <c r="J162" s="382" t="s">
+      <c r="J162" s="385" t="s">
         <v>55</v>
       </c>
-      <c r="K162" s="385">
+      <c r="K162" s="384">
         <v>9</v>
       </c>
       <c r="L162" s="11">
@@ -34998,8 +35023,8 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="236"/>
-      <c r="J163" s="383"/>
-      <c r="K163" s="386"/>
+      <c r="J163" s="386"/>
+      <c r="K163" s="382"/>
       <c r="L163" s="14">
         <v>2</v>
       </c>
@@ -35030,8 +35055,8 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="236"/>
-      <c r="J164" s="383"/>
-      <c r="K164" s="386"/>
+      <c r="J164" s="386"/>
+      <c r="K164" s="382"/>
       <c r="L164" s="14">
         <v>3</v>
       </c>
@@ -35062,8 +35087,8 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="236"/>
-      <c r="J165" s="383"/>
-      <c r="K165" s="386"/>
+      <c r="J165" s="386"/>
+      <c r="K165" s="382"/>
       <c r="L165" s="14">
         <v>4</v>
       </c>
@@ -35094,8 +35119,8 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="236"/>
-      <c r="J166" s="383"/>
-      <c r="K166" s="386"/>
+      <c r="J166" s="386"/>
+      <c r="K166" s="382"/>
       <c r="L166" s="14">
         <v>5</v>
       </c>
@@ -35126,8 +35151,8 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="236"/>
-      <c r="J167" s="383"/>
-      <c r="K167" s="386"/>
+      <c r="J167" s="386"/>
+      <c r="K167" s="382"/>
       <c r="L167" s="14">
         <v>6</v>
       </c>
@@ -35158,8 +35183,8 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="236"/>
-      <c r="J168" s="383"/>
-      <c r="K168" s="386"/>
+      <c r="J168" s="386"/>
+      <c r="K168" s="382"/>
       <c r="L168" s="14">
         <v>7</v>
       </c>
@@ -35190,8 +35215,8 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
       <c r="I169" s="236"/>
-      <c r="J169" s="383"/>
-      <c r="K169" s="386"/>
+      <c r="J169" s="386"/>
+      <c r="K169" s="382"/>
       <c r="L169" s="14">
         <v>8</v>
       </c>
@@ -35222,8 +35247,8 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
       <c r="I170" s="236"/>
-      <c r="J170" s="383"/>
-      <c r="K170" s="386"/>
+      <c r="J170" s="386"/>
+      <c r="K170" s="382"/>
       <c r="L170" s="14">
         <v>9</v>
       </c>
@@ -35254,8 +35279,8 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
       <c r="I171" s="236"/>
-      <c r="J171" s="383"/>
-      <c r="K171" s="386"/>
+      <c r="J171" s="386"/>
+      <c r="K171" s="382"/>
       <c r="L171" s="14">
         <v>10</v>
       </c>
@@ -35286,8 +35311,8 @@
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="236"/>
-      <c r="J172" s="383"/>
-      <c r="K172" s="386"/>
+      <c r="J172" s="386"/>
+      <c r="K172" s="382"/>
       <c r="L172" s="14">
         <v>11</v>
       </c>
@@ -35318,8 +35343,8 @@
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
       <c r="I173" s="236"/>
-      <c r="J173" s="383"/>
-      <c r="K173" s="386"/>
+      <c r="J173" s="386"/>
+      <c r="K173" s="382"/>
       <c r="L173" s="14">
         <v>12</v>
       </c>
@@ -35350,8 +35375,8 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="236"/>
-      <c r="J174" s="383"/>
-      <c r="K174" s="386"/>
+      <c r="J174" s="386"/>
+      <c r="K174" s="382"/>
       <c r="L174" s="14">
         <v>13</v>
       </c>
@@ -35382,8 +35407,8 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
       <c r="I175" s="236"/>
-      <c r="J175" s="383"/>
-      <c r="K175" s="386"/>
+      <c r="J175" s="386"/>
+      <c r="K175" s="382"/>
       <c r="L175" s="14">
         <v>14</v>
       </c>
@@ -35414,8 +35439,8 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
       <c r="I176" s="236"/>
-      <c r="J176" s="383"/>
-      <c r="K176" s="386"/>
+      <c r="J176" s="386"/>
+      <c r="K176" s="382"/>
       <c r="L176" s="14">
         <v>15</v>
       </c>
@@ -35446,8 +35471,8 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
       <c r="I177" s="236"/>
-      <c r="J177" s="383"/>
-      <c r="K177" s="386"/>
+      <c r="J177" s="386"/>
+      <c r="K177" s="382"/>
       <c r="L177" s="14">
         <v>16</v>
       </c>
@@ -35478,8 +35503,8 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="236"/>
-      <c r="J178" s="383"/>
-      <c r="K178" s="386"/>
+      <c r="J178" s="386"/>
+      <c r="K178" s="382"/>
       <c r="L178" s="14">
         <v>17</v>
       </c>
@@ -35510,8 +35535,8 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
       <c r="I179" s="236"/>
-      <c r="J179" s="383"/>
-      <c r="K179" s="386"/>
+      <c r="J179" s="386"/>
+      <c r="K179" s="382"/>
       <c r="L179" s="14">
         <v>18</v>
       </c>
@@ -35542,8 +35567,8 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" s="236"/>
-      <c r="J180" s="383"/>
-      <c r="K180" s="386"/>
+      <c r="J180" s="386"/>
+      <c r="K180" s="382"/>
       <c r="L180" s="14">
         <v>19</v>
       </c>
@@ -35574,8 +35599,8 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
       <c r="I181" s="236"/>
-      <c r="J181" s="383"/>
-      <c r="K181" s="386"/>
+      <c r="J181" s="386"/>
+      <c r="K181" s="382"/>
       <c r="L181" s="14">
         <v>20</v>
       </c>
@@ -35606,8 +35631,8 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
       <c r="I182" s="236"/>
-      <c r="J182" s="383"/>
-      <c r="K182" s="386"/>
+      <c r="J182" s="386"/>
+      <c r="K182" s="382"/>
       <c r="L182" s="14">
         <v>21</v>
       </c>
@@ -35638,8 +35663,8 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
       <c r="I183" s="236"/>
-      <c r="J183" s="383"/>
-      <c r="K183" s="386"/>
+      <c r="J183" s="386"/>
+      <c r="K183" s="382"/>
       <c r="L183" s="14">
         <v>22</v>
       </c>
@@ -35670,8 +35695,8 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
       <c r="I184" s="236"/>
-      <c r="J184" s="383"/>
-      <c r="K184" s="386"/>
+      <c r="J184" s="386"/>
+      <c r="K184" s="382"/>
       <c r="L184" s="14">
         <v>23</v>
       </c>
@@ -35702,8 +35727,8 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
       <c r="I185" s="236"/>
-      <c r="J185" s="384"/>
-      <c r="K185" s="387"/>
+      <c r="J185" s="387"/>
+      <c r="K185" s="388"/>
       <c r="L185" s="29">
         <v>24</v>
       </c>
@@ -37017,23 +37042,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="33">
-    <mergeCell ref="C9:P9"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="C6:P6"/>
-    <mergeCell ref="C7:P7"/>
-    <mergeCell ref="C8:P8"/>
-    <mergeCell ref="C10:P10"/>
-    <mergeCell ref="K48:K52"/>
-    <mergeCell ref="K15:K21"/>
-    <mergeCell ref="K22:K29"/>
-    <mergeCell ref="K30:K36"/>
-    <mergeCell ref="K37:K43"/>
-    <mergeCell ref="K44:K47"/>
     <mergeCell ref="J162:J185"/>
     <mergeCell ref="K162:K185"/>
     <mergeCell ref="J14:J58"/>
@@ -37050,6 +37058,23 @@
     <mergeCell ref="K63:K66"/>
     <mergeCell ref="K67:K69"/>
     <mergeCell ref="K70:K73"/>
+    <mergeCell ref="K48:K52"/>
+    <mergeCell ref="K15:K21"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="K30:K36"/>
+    <mergeCell ref="K37:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="C9:P9"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="C7:P7"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="C10:P10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15:Q185">
@@ -37066,8 +37091,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37109,7 +37134,7 @@
       </c>
       <c r="E3" s="220">
         <f ca="1">TODAY()+90</f>
-        <v>43025</v>
+        <v>43034</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -37177,7 +37202,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>548</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="219" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -37205,7 +37230,9 @@
       <c r="B13" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="90" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
@@ -37214,7 +37241,9 @@
       <c r="B14" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="90" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="89" t="s">
@@ -37223,7 +37252,9 @@
       <c r="B15" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="90" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
@@ -37232,7 +37263,9 @@
       <c r="B16" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="92">
+        <v>46126</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
@@ -37241,7 +37274,9 @@
       <c r="B17" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="93" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="89" t="s">
@@ -37250,7 +37285,9 @@
       <c r="B18" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="94"/>
+      <c r="C18" s="94" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="89" t="s">
@@ -37303,7 +37340,9 @@
       <c r="B23" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="90" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="89" t="s">
@@ -37312,7 +37351,9 @@
       <c r="B24" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="90"/>
+      <c r="C24" s="90" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="89" t="s">
@@ -37321,7 +37362,9 @@
       <c r="B25" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="90" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
@@ -37330,7 +37373,9 @@
       <c r="B26" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="92">
+        <v>46126</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="101" t="s">
@@ -37339,7 +37384,9 @@
       <c r="B27" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="102" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="398"/>
@@ -37360,7 +37407,9 @@
       <c r="B30" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="100"/>
+      <c r="C30" s="100">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="101" t="s">
@@ -37369,7 +37418,9 @@
       <c r="B31" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="103"/>
+      <c r="C31" s="103">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="398"/>
@@ -37390,7 +37441,9 @@
       <c r="B34" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="100"/>
+      <c r="C34" s="100">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:5" s="219" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="91" t="s">
@@ -37399,7 +37452,9 @@
       <c r="B35" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="203"/>
+      <c r="C35" s="203" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="219" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="91" t="s">
@@ -37408,7 +37463,9 @@
       <c r="B36" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="203"/>
+      <c r="C36" s="203" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="89" t="s">
@@ -37417,7 +37474,9 @@
       <c r="B37" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="90"/>
+      <c r="C37" s="90" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="89" t="s">
@@ -37435,13 +37494,15 @@
       <c r="B39" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="222"/>
+      <c r="C39" s="222">
+        <v>42885</v>
+      </c>
       <c r="D39" s="83" t="s">
         <v>529</v>
       </c>
       <c r="E39" s="83" t="str">
         <f>TEXT(C39,"[$-0421]dd MMMM yyyy")</f>
-        <v>00 Januari 1900</v>
+        <v>30 Mei 2017</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -37451,7 +37512,9 @@
       <c r="B40" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="90"/>
+      <c r="C40" s="90" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="101" t="s">
@@ -37460,7 +37523,9 @@
       <c r="B41" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="103"/>
+      <c r="C41" s="103" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="398"/>
@@ -37527,7 +37592,7 @@
       </c>
       <c r="C47" s="279">
         <f ca="1">TODAY()</f>
-        <v>42935</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
